--- a/EXCEL/UDAGEN.xlsx
+++ b/EXCEL/UDAGEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAC\MACROS_WORK\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277BE9D-C88C-498E-BB7A-677A1A24C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705E177-0C14-4B0F-8476-BF7992047F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{97B28DAE-2167-4984-9CE6-3AC0C30C0AA5}"/>
+    <workbookView xWindow="44550" yWindow="0" windowWidth="28800" windowHeight="18555" activeTab="1" xr2:uid="{97B28DAE-2167-4984-9CE6-3AC0C30C0AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="UDA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="338">
   <si>
     <t>Content</t>
   </si>
@@ -884,7 +884,175 @@
     <t>Vessel</t>
   </si>
   <si>
-    <t>:TgObVessel</t>
+    <t>Target-Type</t>
+  </si>
+  <si>
+    <t>:TgObEquipment</t>
+  </si>
+  <si>
+    <t>Mass Flow</t>
+  </si>
+  <si>
+    <t>Drive Type</t>
+  </si>
+  <si>
+    <t>RPM_Operating</t>
+  </si>
+  <si>
+    <t>RPM_Critical</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Pressure Inlet</t>
+  </si>
+  <si>
+    <t>NetPositiveSuctionHead</t>
+  </si>
+  <si>
+    <t>MinimumPermittedMassFlowContinuous</t>
+  </si>
+  <si>
+    <t>Pump Standard</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Shaft Execution</t>
+  </si>
+  <si>
+    <t>Nominal Pressure</t>
+  </si>
+  <si>
+    <t>Inlet Nominal Diameter</t>
+  </si>
+  <si>
+    <t>Inlet Nominal Pressure</t>
+  </si>
+  <si>
+    <t>Inlet Standard</t>
+  </si>
+  <si>
+    <t>Discharge Nominal Diameter</t>
+  </si>
+  <si>
+    <t>Discharge Nominal Pressure</t>
+  </si>
+  <si>
+    <t>Discharge Standard</t>
+  </si>
+  <si>
+    <t>Seal Type</t>
+  </si>
+  <si>
+    <t>Seal Manufacturer</t>
+  </si>
+  <si>
+    <t>Seal Model</t>
+  </si>
+  <si>
+    <t>Impeller Diameter</t>
+  </si>
+  <si>
+    <t>Bearing Seal</t>
+  </si>
+  <si>
+    <t>Bearing Type</t>
+  </si>
+  <si>
+    <t>Lubrication Type Drive Side</t>
+  </si>
+  <si>
+    <t>Lubricatant Control System</t>
+  </si>
+  <si>
+    <t>Cooling Bearing Support</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Massenstrom [t/h]</t>
+  </si>
+  <si>
+    <t>Antrieb Type</t>
+  </si>
+  <si>
+    <t>Drehzahl Betrieb [1/s]</t>
+  </si>
+  <si>
+    <t>Drehzahl kritisch [1/s]</t>
+  </si>
+  <si>
+    <t>NPSH [m]</t>
+  </si>
+  <si>
+    <t>Pumpennorm</t>
+  </si>
+  <si>
+    <t>Ausführung</t>
+  </si>
+  <si>
+    <t>Wellenausführung</t>
+  </si>
+  <si>
+    <t>Nenndruck</t>
+  </si>
+  <si>
+    <t>DN Saugstutzen</t>
+  </si>
+  <si>
+    <t>PN Saugstutzen</t>
+  </si>
+  <si>
+    <t>Norm Saugflansch</t>
+  </si>
+  <si>
+    <t>DN Druckstutzen</t>
+  </si>
+  <si>
+    <t>PN Druckstutzen</t>
+  </si>
+  <si>
+    <t>Norm Druckflansch</t>
+  </si>
+  <si>
+    <t>Art Dichtung</t>
+  </si>
+  <si>
+    <t>Hersteller Dichtung</t>
+  </si>
+  <si>
+    <t>Type Dichtung</t>
+  </si>
+  <si>
+    <t>Laufraddurchmesser [mm]</t>
+  </si>
+  <si>
+    <t>Lagerdichtung</t>
+  </si>
+  <si>
+    <t>Lagerart</t>
+  </si>
+  <si>
+    <t>Schmierart Antriebsseite</t>
+  </si>
+  <si>
+    <t>Schmiermittelüberwachung</t>
+  </si>
+  <si>
+    <t>Lagerträgerkühlung</t>
+  </si>
+  <si>
+    <t>mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]</t>
+  </si>
+  <si>
+    <t>Zulaufdruck [barü]</t>
+  </si>
+  <si>
+    <t>Leistung [kW]</t>
   </si>
 </sst>
 </file>
@@ -936,7 +1104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,6 +1153,18 @@
         <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1028,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1056,6 +1236,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1658,8 +1846,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FC183A9-F9D2-4765-A2E2-D042D622FAF3}" name="EQUI" displayName="EQUI" ref="A1:R57" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:R57" xr:uid="{29BDB532-EC01-4281-85D8-2E8A8E4E0B06}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FC183A9-F9D2-4765-A2E2-D042D622FAF3}" name="EQUI" displayName="EQUI" ref="A1:R78" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:R78" xr:uid="{29BDB532-EC01-4281-85D8-2E8A8E4E0B06}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{A0536717-CB32-4688-BE52-4B3F460EDDFA}" name="Description" dataDxfId="17"/>
     <tableColumn id="17" xr3:uid="{28469C41-02C4-4AB2-9E55-0790E8CACF4D}" name="Desc E3D" dataDxfId="16">
@@ -1688,9 +1876,9 @@
       <calculatedColumnFormula>EQUI[[#Headers],[Ulength 250]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{5B87B7F1-4B67-401B-9242-E6E1CDCABE7A}" name="Elelist " dataDxfId="7">
-      <calculatedColumnFormula>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</calculatedColumnFormula>
+      <calculatedColumnFormula>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B7B0273A-440D-407C-A9C1-56401155B1A5}" name="Spalte1" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{B7B0273A-440D-407C-A9C1-56401155B1A5}" name="Target-Type" dataDxfId="6"/>
     <tableColumn id="11" xr3:uid="{7B564831-FA81-42EA-B850-50E0C6500AB0}" name="udname" dataDxfId="5">
       <calculatedColumnFormula>"udname '"&amp;G2&amp;"'"</calculatedColumnFormula>
     </tableColumn>
@@ -2033,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1353-7DE5-45CC-8469-BC8D38DE6EDF}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7932,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97400A6C-8E9E-4F62-8A84-B939A5F5F2BE}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7992,7 +8180,7 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s">
         <v>182</v>
@@ -8040,11 +8228,11 @@
         <v>TgEquipmentAKZCode</v>
       </c>
       <c r="H2" s="6" t="str">
-        <f t="shared" ref="H2:H57" si="0">G2&amp;F2</f>
+        <f t="shared" ref="H2:H58" si="0">G2&amp;F2</f>
         <v>TgEquipmentAKZCodeUDA</v>
       </c>
       <c r="I2" s="6" t="str">
-        <f t="shared" ref="I2:I57" si="1">"Ablength "&amp; LEN(G2)</f>
+        <f t="shared" ref="I2:I58" si="1">"Ablength "&amp; LEN(G2)</f>
         <v>Ablength 18</v>
       </c>
       <c r="J2" s="6" t="str">
@@ -8052,14 +8240,14 @@
         <v>Ulength 250</v>
       </c>
       <c r="K2" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="6" t="str">
-        <f t="shared" ref="M2:M57" si="2">"udname '"&amp;G2&amp;"'"</f>
+        <f t="shared" ref="M2:M34" si="2">"udname '"&amp;G2&amp;"'"</f>
         <v>udname 'TgEquipmentAKZCode'</v>
       </c>
       <c r="N2" s="6" t="str">
@@ -8071,15 +8259,15 @@
         <v>desc 'AKZ Nr.'</v>
       </c>
       <c r="P2" s="6" t="str">
-        <f t="shared" ref="P2:P57" si="3">CONCATENATE($C2,$H2," utype text"," ",$I2," ",$J2," ",$K2," ",$M2," ",$N2," ",$O2)</f>
-        <v>new uda /TgEquipmentAKZCodeUDA utype text Ablength 18 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentAKZCode' Rptxt 'AKZ Nr.' desc 'AKZ Nr.'</v>
+        <f t="shared" ref="P2:P34" si="3">CONCATENATE($C2,$H2," utype text"," ",$I2," ",$J2," ",$K2," ",$M2," ",$N2," ",$O2)</f>
+        <v>new uda /TgEquipmentAKZCodeUDA utype text Ablength 18 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentAKZCode' Rptxt 'AKZ Nr.' desc 'AKZ Nr.'</v>
       </c>
       <c r="Q2" s="6" t="str">
-        <f t="shared" ref="Q2:Q57" si="4">"new attcol DbAttribute :"&amp;$G2</f>
+        <f t="shared" ref="Q2:Q58" si="4">"new attcol DbAttribute :"&amp;$G2</f>
         <v>new attcol DbAttribute :TgEquipmentAKZCode</v>
       </c>
       <c r="R2" s="6" t="str">
-        <f t="shared" ref="R2:R52" si="5">CONCATENATE("/",$H2," ",$N2," ",$O2)</f>
+        <f t="shared" ref="R2:R34" si="5">CONCATENATE("/",$H2," ",$N2," ",$O2)</f>
         <v>/TgEquipmentAKZCodeUDA Rptxt 'AKZ Nr.' desc 'AKZ Nr.'</v>
       </c>
     </row>
@@ -8122,11 +8310,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K3" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M3" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8142,7 +8330,7 @@
       </c>
       <c r="P3" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentManufacturerUDA utype text Ablength 23 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentManufacturer' Rptxt 'Hersteller' desc 'Hersteller'</v>
+        <v>new uda /TgEquipmentManufacturerUDA utype text Ablength 23 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentManufacturer' Rptxt 'Hersteller' desc 'Hersteller'</v>
       </c>
       <c r="Q3" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8192,11 +8380,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K4" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8212,7 +8400,7 @@
       </c>
       <c r="P4" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTypeUDA utype text Ablength 15 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentType' Rptxt 'Type' desc 'Type'</v>
+        <v>new uda /TgEquipmentTypeUDA utype text Ablength 15 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentType' Rptxt 'Type' desc 'Type'</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8262,11 +8450,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K5" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M5" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8282,7 +8470,7 @@
       </c>
       <c r="P5" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentEquiDescriptionUDA utype text Ablength 26 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentEquiDescription' Rptxt 'Art/Bezeichnung' desc 'Art/Bezeichnung'</v>
+        <v>new uda /TgEquipmentEquiDescriptionUDA utype text Ablength 26 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentEquiDescription' Rptxt 'Art/Bezeichnung' desc 'Art/Bezeichnung'</v>
       </c>
       <c r="Q5" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8332,11 +8520,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K6" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M6" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8352,7 +8540,7 @@
       </c>
       <c r="P6" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentModelUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentModel' Rptxt 'Fabrikats-/Seriennummer' desc 'Fabrikats-/Seriennummer'</v>
+        <v>new uda /TgEquipmentModelUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentModel' Rptxt 'Fabrikats-/Seriennummer' desc 'Fabrikats-/Seriennummer'</v>
       </c>
       <c r="Q6" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8402,11 +8590,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K7" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M7" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8422,7 +8610,7 @@
       </c>
       <c r="P7" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentYearOfConstructionUDA utype text Ablength 29 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentYearOfConstruction' Rptxt 'Baujahr' desc 'Baujahr'</v>
+        <v>new uda /TgEquipmentYearOfConstructionUDA utype text Ablength 29 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentYearOfConstruction' Rptxt 'Baujahr' desc 'Baujahr'</v>
       </c>
       <c r="Q7" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8472,11 +8660,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M8" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8492,7 +8680,7 @@
       </c>
       <c r="P8" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentDesignInAccordanceWithUDA utype text Ablength 33 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentDesignInAccordanceWith' Rptxt 'Auslegung nach' desc 'Auslegung nach'</v>
+        <v>new uda /TgEquipmentDesignInAccordanceWithUDA utype text Ablength 33 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentDesignInAccordanceWith' Rptxt 'Auslegung nach' desc 'Auslegung nach'</v>
       </c>
       <c r="Q8" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8542,11 +8730,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K9" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M9" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8562,7 +8750,7 @@
       </c>
       <c r="P9" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentDImensionCheckUDA utype text Ablength 25 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentDImensionCheck' Rptxt 'Maßprüfung' desc 'Maßprüfung'</v>
+        <v>new uda /TgEquipmentDImensionCheckUDA utype text Ablength 25 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentDImensionCheck' Rptxt 'Maßprüfung' desc 'Maßprüfung'</v>
       </c>
       <c r="Q9" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8612,11 +8800,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K10" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M10" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8632,7 +8820,7 @@
       </c>
       <c r="P10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentConstructionCheckUDA utype text Ablength 28 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentConstructionCheck' Rptxt 'Bauprüfung' desc 'Bauprüfung'</v>
+        <v>new uda /TgEquipmentConstructionCheckUDA utype text Ablength 28 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentConstructionCheck' Rptxt 'Bauprüfung' desc 'Bauprüfung'</v>
       </c>
       <c r="Q10" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8682,11 +8870,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K11" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8702,7 +8890,7 @@
       </c>
       <c r="P11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentMassEmptyUDA utype text Ablength 20 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentMassEmpty' Rptxt 'Gewicht leer' desc 'Gewicht leer'</v>
+        <v>new uda /TgEquipmentMassEmptyUDA utype text Ablength 20 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentMassEmpty' Rptxt 'Gewicht leer' desc 'Gewicht leer'</v>
       </c>
       <c r="Q11" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8752,11 +8940,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K12" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M12" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8772,7 +8960,7 @@
       </c>
       <c r="P12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentMassFilledUDA utype text Ablength 21 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentMassFilled' Rptxt 'Gewicht mit Wasserfüllung' desc 'Gewicht mit Wasserfüllung'</v>
+        <v>new uda /TgEquipmentMassFilledUDA utype text Ablength 21 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentMassFilled' Rptxt 'Gewicht mit Wasserfüllung' desc 'Gewicht mit Wasserfüllung'</v>
       </c>
       <c r="Q12" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8822,11 +9010,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K13" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M13" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8842,7 +9030,7 @@
       </c>
       <c r="P13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentPSminUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentPSmin' Rptxt 'zulässiger maximaler Überdruck' desc 'zulässiger maximaler Überdruck'</v>
+        <v>new uda /TgEquipmentPSminUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentPSmin' Rptxt 'zulässiger maximaler Überdruck' desc 'zulässiger maximaler Überdruck'</v>
       </c>
       <c r="Q13" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8892,11 +9080,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K14" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M14" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8912,7 +9100,7 @@
       </c>
       <c r="P14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentPSmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentPSmax' Rptxt 'zulässiger maximaler Unterdruck' desc 'zulässiger maximaler Unterdruck'</v>
+        <v>new uda /TgEquipmentPSmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentPSmax' Rptxt 'zulässiger maximaler Unterdruck' desc 'zulässiger maximaler Unterdruck'</v>
       </c>
       <c r="Q14" s="6" t="str">
         <f t="shared" si="4"/>
@@ -8962,11 +9150,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K15" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M15" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8982,7 +9170,7 @@
       </c>
       <c r="P15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentPOmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentPOmax' Rptxt 'Betriebsdruck' desc 'Betriebsdruck'</v>
+        <v>new uda /TgEquipmentPOmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentPOmax' Rptxt 'Betriebsdruck' desc 'Betriebsdruck'</v>
       </c>
       <c r="Q15" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9032,11 +9220,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K16" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M16" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9052,7 +9240,7 @@
       </c>
       <c r="P16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentPTUDA utype text Ablength 13 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentPT' Rptxt 'Prüfdruck' desc 'Prüfdruck'</v>
+        <v>new uda /TgEquipmentPTUDA utype text Ablength 13 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentPT' Rptxt 'Prüfdruck' desc 'Prüfdruck'</v>
       </c>
       <c r="Q16" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9102,11 +9290,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K17" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M17" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9122,7 +9310,7 @@
       </c>
       <c r="P17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTSmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentTSmax' Rptxt 'Auslegungstemperatur TS' desc 'Auslegungstemperatur TS'</v>
+        <v>new uda /TgEquipmentTSmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentTSmax' Rptxt 'Auslegungstemperatur TS' desc 'Auslegungstemperatur TS'</v>
       </c>
       <c r="Q17" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9172,11 +9360,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K18" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M18" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9192,7 +9380,7 @@
       </c>
       <c r="P18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTOmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentTOmax' Rptxt 'Betriebstemperatur' desc 'Betriebstemperatur'</v>
+        <v>new uda /TgEquipmentTOmaxUDA utype text Ablength 16 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentTOmax' Rptxt 'Betriebstemperatur' desc 'Betriebstemperatur'</v>
       </c>
       <c r="Q18" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9242,11 +9430,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K19" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M19" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9262,7 +9450,7 @@
       </c>
       <c r="P19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTEnvironmentUDA utype text Ablength 23 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentTEnvironment' Rptxt 'Umgebungs-temperatur' desc 'Umgebungs-temperatur'</v>
+        <v>new uda /TgEquipmentTEnvironmentUDA utype text Ablength 23 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentTEnvironment' Rptxt 'Umgebungs-temperatur' desc 'Umgebungs-temperatur'</v>
       </c>
       <c r="Q19" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9312,11 +9500,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K20" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M20" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9332,7 +9520,7 @@
       </c>
       <c r="P20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTMediaUDA utype text Ablength 17 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentTMedia' Rptxt 'Temp. Medium' desc 'Temp. Medium'</v>
+        <v>new uda /TgEquipmentTMediaUDA utype text Ablength 17 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentTMedia' Rptxt 'Temp. Medium' desc 'Temp. Medium'</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9382,11 +9570,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K21" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M21" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9402,7 +9590,7 @@
       </c>
       <c r="P21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentMediaDensityUDA utype text Ablength 23 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentMediaDensity' Rptxt 'Dichte Medium' desc 'Dichte Medium'</v>
+        <v>new uda /TgEquipmentMediaDensityUDA utype text Ablength 23 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentMediaDensity' Rptxt 'Dichte Medium' desc 'Dichte Medium'</v>
       </c>
       <c r="Q21" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9452,11 +9640,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K22" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M22" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9472,7 +9660,7 @@
       </c>
       <c r="P22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentLocatedUDA utype text Ablength 18 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentLocated' Rptxt 'Aufstellart' desc 'Aufstellart'</v>
+        <v>new uda /TgEquipmentLocatedUDA utype text Ablength 18 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentLocated' Rptxt 'Aufstellart' desc 'Aufstellart'</v>
       </c>
       <c r="Q22" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9522,11 +9710,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K23" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M23" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9542,7 +9730,7 @@
       </c>
       <c r="P23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentHasThermalInsulationUDA utype text Ablength 31 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentHasThermalInsulation' Rptxt 'therm. Isolierung' desc 'therm. Isolierung'</v>
+        <v>new uda /TgEquipmentHasThermalInsulationUDA utype text Ablength 31 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentHasThermalInsulation' Rptxt 'therm. Isolierung' desc 'therm. Isolierung'</v>
       </c>
       <c r="Q23" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9592,11 +9780,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K24" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M24" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9612,7 +9800,7 @@
       </c>
       <c r="P24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentTypeOfInsulationUDA utype text Ablength 27 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentTypeOfInsulation' Rptxt 'Isoliermaterial-Bezeichnung' desc 'Isoliermaterial-Bezeichnung'</v>
+        <v>new uda /TgEquipmentTypeOfInsulationUDA utype text Ablength 27 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentTypeOfInsulation' Rptxt 'Isoliermaterial-Bezeichnung' desc 'Isoliermaterial-Bezeichnung'</v>
       </c>
       <c r="Q24" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9662,11 +9850,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K25" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9682,7 +9870,7 @@
       </c>
       <c r="P25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentDensityOfInsulationUDA utype text Ablength 30 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentDensityOfInsulation' Rptxt 'Dichte Isoliermaterial' desc 'Dichte Isoliermaterial'</v>
+        <v>new uda /TgEquipmentDensityOfInsulationUDA utype text Ablength 30 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentDensityOfInsulation' Rptxt 'Dichte Isoliermaterial' desc 'Dichte Isoliermaterial'</v>
       </c>
       <c r="Q25" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9732,11 +9920,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K26" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M26" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9752,7 +9940,7 @@
       </c>
       <c r="P26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentMaterialOfInsulationShellUDA utype text Ablength 36 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentMaterialOfInsulationShell' Rptxt 'Isoliermantel-Werkstoff' desc 'Isoliermantel-Werkstoff'</v>
+        <v>new uda /TgEquipmentMaterialOfInsulationShellUDA utype text Ablength 36 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentMaterialOfInsulationShell' Rptxt 'Isoliermantel-Werkstoff' desc 'Isoliermantel-Werkstoff'</v>
       </c>
       <c r="Q26" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9802,11 +9990,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K27" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M27" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9822,7 +10010,7 @@
       </c>
       <c r="P27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentThicknessOfInsulationShellUDA utype text Ablength 37 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentThicknessOfInsulationShell' Rptxt 'Materialstärke Isoliermantel' desc 'Materialstärke Isoliermantel'</v>
+        <v>new uda /TgEquipmentThicknessOfInsulationShellUDA utype text Ablength 37 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentThicknessOfInsulationShell' Rptxt 'Materialstärke Isoliermantel' desc 'Materialstärke Isoliermantel'</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9872,11 +10060,11 @@
         <v>Ulength 250</v>
       </c>
       <c r="K28" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M28" s="6" t="str">
         <f t="shared" si="2"/>
@@ -9892,7 +10080,7 @@
       </c>
       <c r="P28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgEquipmentCENumberUDA utype text Ablength 19 Ulength 250 Elelist :TgObVessel udname 'TgEquipmentCENumber' Rptxt 'CE Nr. ' desc 'CE Nr. '</v>
+        <v>new uda /TgEquipmentCENumberUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgEquipmentCENumber' Rptxt 'CE Nr. ' desc 'CE Nr. '</v>
       </c>
       <c r="Q28" s="6" t="str">
         <f t="shared" si="4"/>
@@ -9903,1155 +10091,1150 @@
         <v>/TgEquipmentCENumberUDA Rptxt 'CE Nr. ' desc 'CE Nr. '</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v/>
+      </c>
+      <c r="C29" s="19" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17">
+        <f>EQUI[[#This Row],[Description]]</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G29" s="19" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>Tg</v>
+      </c>
+      <c r="H29" s="19" t="str">
+        <f>G29&amp;F29</f>
+        <v>TgUDA</v>
+      </c>
+      <c r="I29" s="19" t="str">
+        <f>"Ablength "&amp; LEN(G29)</f>
+        <v>Ablength 2</v>
+      </c>
+      <c r="J29" s="19" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K29" s="19" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v xml:space="preserve">Elelist </v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19" t="str">
+        <f>"udname '"&amp;G29&amp;"'"</f>
+        <v>udname 'Tg'</v>
+      </c>
+      <c r="N29" s="19" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt '0'</v>
+      </c>
+      <c r="O29" s="19" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc '0'</v>
+      </c>
+      <c r="P29" s="19" t="str">
+        <f>CONCATENATE($C29,$H29," utype text"," ",$I29," ",$J29," ",$K29," ",$M29," ",$N29," ",$O29)</f>
+        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist  udname 'Tg' Rptxt '0' desc '0'</v>
+      </c>
+      <c r="Q29" s="19" t="str">
+        <f>"new attcol DbAttribute :"&amp;$G29</f>
+        <v>new attcol DbAttribute :Tg</v>
+      </c>
+      <c r="R29" s="19" t="str">
+        <f>CONCATENATE("/",$H29," ",$N29," ",$O29)</f>
+        <v>/TgUDA Rptxt '0' desc '0'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B30" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>Volume</v>
       </c>
-      <c r="C29" s="6" t="str">
+      <c r="C30" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F29" s="6" t="str">
+      <c r="F30" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G29" s="6" t="str">
+      <c r="G30" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselVolume</v>
       </c>
-      <c r="H29" s="6" t="str">
+      <c r="H30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselVolumeUDA</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 14</v>
       </c>
-      <c r="J29" s="6" t="str">
+      <c r="J30" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K29" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M29" s="6" t="str">
+      <c r="K30" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" s="6" t="str">
         <f t="shared" si="2"/>
         <v>udname 'TgVesselVolume'</v>
       </c>
-      <c r="N29" s="6" t="str">
+      <c r="N30" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Volumen'</v>
       </c>
-      <c r="O29" s="6" t="str">
+      <c r="O30" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Volumen'</v>
       </c>
-      <c r="P29" s="6" t="str">
+      <c r="P30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgVesselVolumeUDA utype text Ablength 14 Ulength 250 Elelist :TgObVessel udname 'TgVesselVolume' Rptxt 'Volumen' desc 'Volumen'</v>
-      </c>
-      <c r="Q29" s="6" t="str">
+        <v>new uda /TgVesselVolumeUDA utype text Ablength 14 Ulength 250 Elelist :TgObEquipment udname 'TgVesselVolume' Rptxt 'Volumen' desc 'Volumen'</v>
+      </c>
+      <c r="Q30" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselVolume</v>
       </c>
-      <c r="R29" s="6" t="str">
+      <c r="R30" s="6" t="str">
         <f t="shared" si="5"/>
         <v>/TgVesselVolumeUDA Rptxt 'Volumen' desc 'Volumen'</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B31" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>HeatingPower</v>
       </c>
-      <c r="C30" s="6" t="str">
+      <c r="C31" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F30" s="6" t="str">
+      <c r="F31" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G30" s="6" t="str">
+      <c r="G31" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselHeatingPower</v>
       </c>
-      <c r="H30" s="6" t="str">
+      <c r="H31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselHeatingPowerUDA</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 20</v>
       </c>
-      <c r="J30" s="6" t="str">
+      <c r="J31" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K30" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M30" s="6" t="str">
+      <c r="K31" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" s="6" t="str">
         <f t="shared" si="2"/>
         <v>udname 'TgVesselHeatingPower'</v>
       </c>
-      <c r="N30" s="6" t="str">
+      <c r="N31" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Begleitheizung'</v>
       </c>
-      <c r="O30" s="6" t="str">
+      <c r="O31" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Begleitheizung'</v>
       </c>
-      <c r="P30" s="6" t="str">
+      <c r="P31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgVesselHeatingPowerUDA utype text Ablength 20 Ulength 250 Elelist :TgObVessel udname 'TgVesselHeatingPower' Rptxt 'Begleitheizung' desc 'Begleitheizung'</v>
-      </c>
-      <c r="Q30" s="6" t="str">
+        <v>new uda /TgVesselHeatingPowerUDA utype text Ablength 20 Ulength 250 Elelist :TgObEquipment udname 'TgVesselHeatingPower' Rptxt 'Begleitheizung' desc 'Begleitheizung'</v>
+      </c>
+      <c r="Q31" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselHeatingPower</v>
       </c>
-      <c r="R30" s="6" t="str">
+      <c r="R31" s="6" t="str">
         <f t="shared" si="5"/>
         <v>/TgVesselHeatingPowerUDA Rptxt 'Begleitheizung' desc 'Begleitheizung'</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B32" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>MixingPower</v>
       </c>
-      <c r="C31" s="6" t="str">
+      <c r="C32" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F31" s="6" t="str">
+      <c r="F32" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G31" s="6" t="str">
+      <c r="G32" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselMixingPower</v>
       </c>
-      <c r="H31" s="6" t="str">
+      <c r="H32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselMixingPowerUDA</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 19</v>
       </c>
-      <c r="J31" s="6" t="str">
+      <c r="J32" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K31" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="6" t="str">
+      <c r="K32" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>udname 'TgVesselMixingPower'</v>
       </c>
-      <c r="N31" s="6" t="str">
+      <c r="N32" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Rührwerk Motor'</v>
       </c>
-      <c r="O31" s="6" t="str">
+      <c r="O32" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Rührwerk Motor'</v>
       </c>
-      <c r="P31" s="6" t="str">
+      <c r="P32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgVesselMixingPowerUDA utype text Ablength 19 Ulength 250 Elelist :TgObVessel udname 'TgVesselMixingPower' Rptxt 'Rührwerk Motor' desc 'Rührwerk Motor'</v>
-      </c>
-      <c r="Q31" s="6" t="str">
+        <v>new uda /TgVesselMixingPowerUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgVesselMixingPower' Rptxt 'Rührwerk Motor' desc 'Rührwerk Motor'</v>
+      </c>
+      <c r="Q32" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselMixingPower</v>
       </c>
-      <c r="R31" s="6" t="str">
+      <c r="R32" s="6" t="str">
         <f t="shared" si="5"/>
         <v>/TgVesselMixingPowerUDA Rptxt 'Rührwerk Motor' desc 'Rührwerk Motor'</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B33" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfaceCoating</v>
       </c>
-      <c r="C32" s="6" t="str">
+      <c r="C33" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F32" s="6" t="str">
+      <c r="F33" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G32" s="6" t="str">
+      <c r="G33" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfaceCoating</v>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfaceCoatingUDA</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 22</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="J33" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K32" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M32" s="6" t="str">
+      <c r="K33" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>udname 'TgVesselSurfaceCoating'</v>
       </c>
-      <c r="N32" s="6" t="str">
+      <c r="N33" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Behälter - Beschichtungstyp'</v>
       </c>
-      <c r="O32" s="6" t="str">
+      <c r="O33" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Behälter - Beschichtungstyp'</v>
       </c>
-      <c r="P32" s="6" t="str">
+      <c r="P33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfaceCoatingUDA utype text Ablength 22 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfaceCoating' Rptxt 'Behälter - Beschichtungstyp' desc 'Behälter - Beschichtungstyp'</v>
-      </c>
-      <c r="Q32" s="6" t="str">
+        <v>new uda /TgVesselSurfaceCoatingUDA utype text Ablength 22 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfaceCoating' Rptxt 'Behälter - Beschichtungstyp' desc 'Behälter - Beschichtungstyp'</v>
+      </c>
+      <c r="Q33" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfaceCoating</v>
       </c>
-      <c r="R32" s="6" t="str">
+      <c r="R33" s="6" t="str">
         <f t="shared" si="5"/>
         <v>/TgVesselSurfaceCoatingUDA Rptxt 'Behälter - Beschichtungstyp' desc 'Behälter - Beschichtungstyp'</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B34" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfaceTreatment</v>
       </c>
-      <c r="C33" s="6" t="str">
+      <c r="C34" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="6" t="str">
+      <c r="F34" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G33" s="6" t="str">
+      <c r="G34" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfaceTreatment</v>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="H34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfaceTreatmentUDA</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 24</v>
       </c>
-      <c r="J33" s="6" t="str">
+      <c r="J34" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K33" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M33" s="6" t="str">
+      <c r="K34" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>udname 'TgVesselSurfaceTreatment'</v>
       </c>
-      <c r="N33" s="6" t="str">
+      <c r="N34" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Behälter - Oberflächenvorbehandlung'</v>
       </c>
-      <c r="O33" s="6" t="str">
+      <c r="O34" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Behälter - Oberflächenvorbehandlung'</v>
       </c>
-      <c r="P33" s="6" t="str">
+      <c r="P34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfaceTreatmentUDA utype text Ablength 24 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfaceTreatment' Rptxt 'Behälter - Oberflächenvorbehandlung' desc 'Behälter - Oberflächenvorbehandlung'</v>
-      </c>
-      <c r="Q33" s="6" t="str">
+        <v>new uda /TgVesselSurfaceTreatmentUDA utype text Ablength 24 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfaceTreatment' Rptxt 'Behälter - Oberflächenvorbehandlung' desc 'Behälter - Oberflächenvorbehandlung'</v>
+      </c>
+      <c r="Q34" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfaceTreatment</v>
       </c>
-      <c r="R33" s="6" t="str">
+      <c r="R34" s="6" t="str">
         <f t="shared" si="5"/>
         <v>/TgVesselSurfaceTreatmentUDA Rptxt 'Behälter - Oberflächenvorbehandlung' desc 'Behälter - Oberflächenvorbehandlung'</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B35" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfacePrimer</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C35" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="6" t="str">
+      <c r="F35" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G34" s="6" t="str">
+      <c r="G35" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfacePrimer</v>
       </c>
-      <c r="H34" s="6" t="str">
+      <c r="H35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfacePrimerUDA</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 21</v>
       </c>
-      <c r="J34" s="6" t="str">
+      <c r="J35" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K34" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M34" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K35" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M35" s="6" t="str">
+        <f t="shared" ref="M35:M58" si="6">"udname '"&amp;G35&amp;"'"</f>
         <v>udname 'TgVesselSurfacePrimer'</v>
       </c>
-      <c r="N34" s="6" t="str">
+      <c r="N35" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Behälter - Grundanstrich'</v>
       </c>
-      <c r="O34" s="6" t="str">
+      <c r="O35" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Behälter - Grundanstrich'</v>
       </c>
-      <c r="P34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfacePrimerUDA utype text Ablength 21 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfacePrimer' Rptxt 'Behälter - Grundanstrich' desc 'Behälter - Grundanstrich'</v>
-      </c>
-      <c r="Q34" s="6" t="str">
+      <c r="P35" s="6" t="str">
+        <f t="shared" ref="P35:P58" si="7">CONCATENATE($C35,$H35," utype text"," ",$I35," ",$J35," ",$K35," ",$M35," ",$N35," ",$O35)</f>
+        <v>new uda /TgVesselSurfacePrimerUDA utype text Ablength 21 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfacePrimer' Rptxt 'Behälter - Grundanstrich' desc 'Behälter - Grundanstrich'</v>
+      </c>
+      <c r="Q35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfacePrimer</v>
       </c>
-      <c r="R34" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R35" s="6" t="str">
+        <f t="shared" ref="R35:R58" si="8">CONCATENATE("/",$H35," ",$N35," ",$O35)</f>
         <v>/TgVesselSurfacePrimerUDA Rptxt 'Behälter - Grundanstrich' desc 'Behälter - Grundanstrich'</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B36" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfaceCoatingOfSupports</v>
       </c>
-      <c r="C35" s="6" t="str">
+      <c r="C36" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="6" t="str">
+      <c r="F36" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G35" s="6" t="str">
+      <c r="G36" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfaceCoatingOfSupports</v>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="H36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfaceCoatingOfSupportsUDA</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 32</v>
       </c>
-      <c r="J35" s="6" t="str">
+      <c r="J36" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K35" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M35" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K36" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselSurfaceCoatingOfSupports'</v>
       </c>
-      <c r="N35" s="6" t="str">
+      <c r="N36" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Füße - Beschichtungstyp'</v>
       </c>
-      <c r="O35" s="6" t="str">
+      <c r="O36" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Füße - Beschichtungstyp'</v>
       </c>
-      <c r="P35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfaceCoatingOfSupportsUDA utype text Ablength 32 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfaceCoatingOfSupports' Rptxt 'Füße - Beschichtungstyp' desc 'Füße - Beschichtungstyp'</v>
-      </c>
-      <c r="Q35" s="6" t="str">
+      <c r="P36" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselSurfaceCoatingOfSupportsUDA utype text Ablength 32 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfaceCoatingOfSupports' Rptxt 'Füße - Beschichtungstyp' desc 'Füße - Beschichtungstyp'</v>
+      </c>
+      <c r="Q36" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfaceCoatingOfSupports</v>
       </c>
-      <c r="R35" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R36" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselSurfaceCoatingOfSupportsUDA Rptxt 'Füße - Beschichtungstyp' desc 'Füße - Beschichtungstyp'</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B37" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfaceTreatmentOfSupports</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C37" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="6" t="str">
+      <c r="F37" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G36" s="6" t="str">
+      <c r="G37" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfaceTreatmentOfSupports</v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfaceTreatmentOfSupportsUDA</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 34</v>
       </c>
-      <c r="J36" s="6" t="str">
+      <c r="J37" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K36" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M36" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K37" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselSurfaceTreatmentOfSupports'</v>
       </c>
-      <c r="N36" s="6" t="str">
+      <c r="N37" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Füße - Oberflächenvorbehandlung'</v>
       </c>
-      <c r="O36" s="6" t="str">
+      <c r="O37" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Füße - Oberflächenvorbehandlung'</v>
       </c>
-      <c r="P36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfaceTreatmentOfSupportsUDA utype text Ablength 34 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfaceTreatmentOfSupports' Rptxt 'Füße - Oberflächenvorbehandlung' desc 'Füße - Oberflächenvorbehandlung'</v>
-      </c>
-      <c r="Q36" s="6" t="str">
+      <c r="P37" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselSurfaceTreatmentOfSupportsUDA utype text Ablength 34 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfaceTreatmentOfSupports' Rptxt 'Füße - Oberflächenvorbehandlung' desc 'Füße - Oberflächenvorbehandlung'</v>
+      </c>
+      <c r="Q37" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfaceTreatmentOfSupports</v>
       </c>
-      <c r="R36" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R37" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselSurfaceTreatmentOfSupportsUDA Rptxt 'Füße - Oberflächenvorbehandlung' desc 'Füße - Oberflächenvorbehandlung'</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B38" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SurfacePrimerOfSupports</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C38" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="6" t="str">
+      <c r="F38" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G37" s="6" t="str">
+      <c r="G38" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSurfacePrimerOfSupports</v>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSurfacePrimerOfSupportsUDA</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="I38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 31</v>
       </c>
-      <c r="J37" s="6" t="str">
+      <c r="J38" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K37" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M37" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K38" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselSurfacePrimerOfSupports'</v>
       </c>
-      <c r="N37" s="6" t="str">
+      <c r="N38" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Füße - Grundanstrich'</v>
       </c>
-      <c r="O37" s="6" t="str">
+      <c r="O38" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Füße - Grundanstrich'</v>
       </c>
-      <c r="P37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselSurfacePrimerOfSupportsUDA utype text Ablength 31 Ulength 250 Elelist :TgObVessel udname 'TgVesselSurfacePrimerOfSupports' Rptxt 'Füße - Grundanstrich' desc 'Füße - Grundanstrich'</v>
-      </c>
-      <c r="Q37" s="6" t="str">
+      <c r="P38" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselSurfacePrimerOfSupportsUDA utype text Ablength 31 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSurfacePrimerOfSupports' Rptxt 'Füße - Grundanstrich' desc 'Füße - Grundanstrich'</v>
+      </c>
+      <c r="Q38" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSurfacePrimerOfSupports</v>
       </c>
-      <c r="R37" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R38" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselSurfacePrimerOfSupportsUDA Rptxt 'Füße - Grundanstrich' desc 'Füße - Grundanstrich'</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B39" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>WeldExecution</v>
       </c>
-      <c r="C38" s="6" t="str">
+      <c r="C39" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F38" s="6" t="str">
+      <c r="F39" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G38" s="6" t="str">
+      <c r="G39" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselWeldExecution</v>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselWeldExecutionUDA</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 21</v>
       </c>
-      <c r="J38" s="6" t="str">
+      <c r="J39" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K38" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M38" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K39" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselWeldExecution'</v>
       </c>
-      <c r="N38" s="6" t="str">
+      <c r="N39" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Ausführung der Schweißnähte'</v>
       </c>
-      <c r="O38" s="6" t="str">
+      <c r="O39" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Ausführung der Schweißnähte'</v>
       </c>
-      <c r="P38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselWeldExecutionUDA utype text Ablength 21 Ulength 250 Elelist :TgObVessel udname 'TgVesselWeldExecution' Rptxt 'Ausführung der Schweißnähte' desc 'Ausführung der Schweißnähte'</v>
-      </c>
-      <c r="Q38" s="6" t="str">
+      <c r="P39" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselWeldExecutionUDA utype text Ablength 21 Ulength 250 Elelist :TgObEquipment udname 'TgVesselWeldExecution' Rptxt 'Ausführung der Schweißnähte' desc 'Ausführung der Schweißnähte'</v>
+      </c>
+      <c r="Q39" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselWeldExecution</v>
       </c>
-      <c r="R38" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R39" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselWeldExecutionUDA Rptxt 'Ausführung der Schweißnähte' desc 'Ausführung der Schweißnähte'</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B40" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>nonDestructiveTest</v>
       </c>
-      <c r="C39" s="6" t="str">
+      <c r="C40" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="F39" s="6" t="str">
+      <c r="F40" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G39" s="6" t="str">
+      <c r="G40" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselnonDestructiveTest</v>
       </c>
-      <c r="H39" s="6" t="str">
+      <c r="H40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselnonDestructiveTestUDA</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 26</v>
       </c>
-      <c r="J39" s="6" t="str">
+      <c r="J40" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K39" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M39" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K40" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselnonDestructiveTest'</v>
       </c>
-      <c r="N39" s="6" t="str">
+      <c r="N40" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'zerstörungsfreie Prüfung nach'</v>
       </c>
-      <c r="O39" s="6" t="str">
+      <c r="O40" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'zerstörungsfreie Prüfung nach'</v>
       </c>
-      <c r="P39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselnonDestructiveTestUDA utype text Ablength 26 Ulength 250 Elelist :TgObVessel udname 'TgVesselnonDestructiveTest' Rptxt 'zerstörungsfreie Prüfung nach' desc 'zerstörungsfreie Prüfung nach'</v>
-      </c>
-      <c r="Q39" s="6" t="str">
+      <c r="P40" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselnonDestructiveTestUDA utype text Ablength 26 Ulength 250 Elelist :TgObEquipment udname 'TgVesselnonDestructiveTest' Rptxt 'zerstörungsfreie Prüfung nach' desc 'zerstörungsfreie Prüfung nach'</v>
+      </c>
+      <c r="Q40" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselnonDestructiveTest</v>
       </c>
-      <c r="R39" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R40" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselnonDestructiveTestUDA Rptxt 'zerstörungsfreie Prüfung nach' desc 'zerstörungsfreie Prüfung nach'</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="7" t="str">
+      <c r="B41" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>HasSafetyDevice</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C41" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="6" t="str">
+      <c r="F41" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G40" s="6" t="str">
+      <c r="G41" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselHasSafetyDevice</v>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselHasSafetyDeviceUDA</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 23</v>
       </c>
-      <c r="J40" s="6" t="str">
+      <c r="J41" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K40" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K41" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M41" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselHasSafetyDevice'</v>
       </c>
-      <c r="N40" s="6" t="str">
+      <c r="N41" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'SIV vorhanden'</v>
       </c>
-      <c r="O40" s="6" t="str">
+      <c r="O41" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'SIV vorhanden'</v>
       </c>
-      <c r="P40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselHasSafetyDeviceUDA utype text Ablength 23 Ulength 250 Elelist :TgObVessel udname 'TgVesselHasSafetyDevice' Rptxt 'SIV vorhanden' desc 'SIV vorhanden'</v>
-      </c>
-      <c r="Q40" s="6" t="str">
+      <c r="P41" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselHasSafetyDeviceUDA utype text Ablength 23 Ulength 250 Elelist :TgObEquipment udname 'TgVesselHasSafetyDevice' Rptxt 'SIV vorhanden' desc 'SIV vorhanden'</v>
+      </c>
+      <c r="Q41" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselHasSafetyDevice</v>
       </c>
-      <c r="R40" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R41" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselHasSafetyDeviceUDA Rptxt 'SIV vorhanden' desc 'SIV vorhanden'</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="B42" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SafetyDeviceResponsePressure</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C42" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F41" s="6" t="str">
+      <c r="F42" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G41" s="6" t="str">
+      <c r="G42" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselSafetyDeviceResponsePressure</v>
       </c>
-      <c r="H41" s="6" t="str">
+      <c r="H42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselSafetyDeviceResponsePressureUDA</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 36</v>
       </c>
-      <c r="J41" s="6" t="str">
+      <c r="J42" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K41" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M41" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K42" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M42" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselSafetyDeviceResponsePressure'</v>
       </c>
-      <c r="N41" s="6" t="str">
+      <c r="N42" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'SIV-Ansprechdruck PSIV'</v>
       </c>
-      <c r="O41" s="6" t="str">
+      <c r="O42" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'SIV-Ansprechdruck PSIV'</v>
       </c>
-      <c r="P41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselSafetyDeviceResponsePressureUDA utype text Ablength 36 Ulength 250 Elelist :TgObVessel udname 'TgVesselSafetyDeviceResponsePressure' Rptxt 'SIV-Ansprechdruck PSIV' desc 'SIV-Ansprechdruck PSIV'</v>
-      </c>
-      <c r="Q41" s="6" t="str">
+      <c r="P42" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselSafetyDeviceResponsePressureUDA utype text Ablength 36 Ulength 250 Elelist :TgObEquipment udname 'TgVesselSafetyDeviceResponsePressure' Rptxt 'SIV-Ansprechdruck PSIV' desc 'SIV-Ansprechdruck PSIV'</v>
+      </c>
+      <c r="Q42" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselSafetyDeviceResponsePressure</v>
       </c>
-      <c r="R41" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R42" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselSafetyDeviceResponsePressureUDA Rptxt 'SIV-Ansprechdruck PSIV' desc 'SIV-Ansprechdruck PSIV'</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B43" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>hasCheckBook</v>
       </c>
-      <c r="C42" s="6" t="str">
+      <c r="C43" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F42" s="6" t="str">
+      <c r="F43" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G42" s="6" t="str">
+      <c r="G43" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselhasCheckBook</v>
       </c>
-      <c r="H42" s="6" t="str">
+      <c r="H43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselhasCheckBookUDA</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 20</v>
       </c>
-      <c r="J42" s="6" t="str">
+      <c r="J43" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K42" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M42" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K43" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M43" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselhasCheckBook'</v>
       </c>
-      <c r="N42" s="6" t="str">
+      <c r="N43" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Prüfbuch vorhanden'</v>
       </c>
-      <c r="O42" s="6" t="str">
+      <c r="O43" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Prüfbuch vorhanden'</v>
       </c>
-      <c r="P42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselhasCheckBookUDA utype text Ablength 20 Ulength 250 Elelist :TgObVessel udname 'TgVesselhasCheckBook' Rptxt 'Prüfbuch vorhanden' desc 'Prüfbuch vorhanden'</v>
-      </c>
-      <c r="Q42" s="6" t="str">
+      <c r="P43" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselhasCheckBookUDA utype text Ablength 20 Ulength 250 Elelist :TgObEquipment udname 'TgVesselhasCheckBook' Rptxt 'Prüfbuch vorhanden' desc 'Prüfbuch vorhanden'</v>
+      </c>
+      <c r="Q43" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselhasCheckBook</v>
       </c>
-      <c r="R42" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R43" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselhasCheckBookUDA Rptxt 'Prüfbuch vorhanden' desc 'Prüfbuch vorhanden'</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="B44" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>PressureDeviceNumber</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C44" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F43" s="6" t="str">
+      <c r="F44" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G43" s="6" t="str">
+      <c r="G44" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselPressureDeviceNumber</v>
       </c>
-      <c r="H43" s="6" t="str">
+      <c r="H44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselPressureDeviceNumberUDA</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 28</v>
       </c>
-      <c r="J43" s="6" t="str">
+      <c r="J44" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K43" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M43" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K44" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M44" s="6" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'TgVesselPressureDeviceNumber'</v>
       </c>
-      <c r="N43" s="6" t="str">
+      <c r="N44" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Druckgeräte-Nr. [TÜV-Nr.]'</v>
       </c>
-      <c r="O43" s="6" t="str">
+      <c r="O44" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Druckgeräte-Nr. [TÜV-Nr.]'</v>
       </c>
-      <c r="P43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselPressureDeviceNumberUDA utype text Ablength 28 Ulength 250 Elelist :TgObVessel udname 'TgVesselPressureDeviceNumber' Rptxt 'Druckgeräte-Nr. [TÜV-Nr.]' desc 'Druckgeräte-Nr. [TÜV-Nr.]'</v>
-      </c>
-      <c r="Q43" s="6" t="str">
+      <c r="P44" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselPressureDeviceNumberUDA utype text Ablength 28 Ulength 250 Elelist :TgObEquipment udname 'TgVesselPressureDeviceNumber' Rptxt 'Druckgeräte-Nr. [TÜV-Nr.]' desc 'Druckgeräte-Nr. [TÜV-Nr.]'</v>
+      </c>
+      <c r="Q44" s="6" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :TgVesselPressureDeviceNumber</v>
       </c>
-      <c r="R43" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R44" s="6" t="str">
+        <f t="shared" si="8"/>
         <v>/TgVesselPressureDeviceNumberUDA Rptxt 'Druckgeräte-Nr. [TÜV-Nr.]' desc 'Druckgeräte-Nr. [TÜV-Nr.]'</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="B45" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>FluidGroupOfCompartment1</v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C45" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F44" s="6" t="str">
+      <c r="F45" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G44" s="6" t="str">
+      <c r="G45" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgVesselFluidGroupOfCompartment1</v>
       </c>
-      <c r="H44" s="6" t="str">
+      <c r="H45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>TgVesselFluidGroupOfCompartment1UDA</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Ablength 32</v>
-      </c>
-      <c r="J44" s="6" t="str">
-        <f>EQUI[[#Headers],[Ulength 250]]</f>
-        <v>Ulength 250</v>
-      </c>
-      <c r="K44" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselFluidGroupOfCompartment1'</v>
-      </c>
-      <c r="N44" s="6" t="str">
-        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Raum 1: Fluidgruppe (1) oder (2)'</v>
-      </c>
-      <c r="O44" s="6" t="str">
-        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
-      </c>
-      <c r="P44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselFluidGroupOfCompartment1UDA utype text Ablength 32 Ulength 250 Elelist :TgObVessel udname 'TgVesselFluidGroupOfCompartment1' Rptxt 'Raum 1: Fluidgruppe (1) oder (2)' desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
-      </c>
-      <c r="Q44" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselFluidGroupOfCompartment1</v>
-      </c>
-      <c r="R44" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselFluidGroupOfCompartment1UDA Rptxt 'Raum 1: Fluidgruppe (1) oder (2)' desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" s="7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v>FluidGroupOfCompartment2</v>
-      </c>
-      <c r="C45" s="6" t="str">
-        <f>EQUI[[#Headers],[new uda /]]</f>
-        <v>new uda /</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f>EQUI[[#Headers],[UDA]]</f>
-        <v>UDA</v>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>TgVesselFluidGroupOfCompartment2</v>
-      </c>
-      <c r="H45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>TgVesselFluidGroupOfCompartment2UDA</v>
       </c>
       <c r="I45" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11062,44 +11245,44 @@
         <v>Ulength 250</v>
       </c>
       <c r="K45" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselFluidGroupOfCompartment2'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselFluidGroupOfCompartment1'</v>
       </c>
       <c r="N45" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Raum 2: Fluidgruppe (1) oder (2)'</v>
+        <v>Rptxt 'Raum 1: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="O45" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
+        <v>desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="P45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselFluidGroupOfCompartment2UDA utype text Ablength 32 Ulength 250 Elelist :TgObVessel udname 'TgVesselFluidGroupOfCompartment2' Rptxt 'Raum 2: Fluidgruppe (1) oder (2)' desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselFluidGroupOfCompartment1UDA utype text Ablength 32 Ulength 250 Elelist :TgObEquipment udname 'TgVesselFluidGroupOfCompartment1' Rptxt 'Raum 1: Fluidgruppe (1) oder (2)' desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="Q45" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselFluidGroupOfCompartment2</v>
+        <v>new attcol DbAttribute :TgVesselFluidGroupOfCompartment1</v>
       </c>
       <c r="R45" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselFluidGroupOfCompartment2UDA Rptxt 'Raum 2: Fluidgruppe (1) oder (2)' desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
+        <f t="shared" si="8"/>
+        <v>/TgVesselFluidGroupOfCompartment1UDA Rptxt 'Raum 1: Fluidgruppe (1) oder (2)' desc 'Raum 1: Fluidgruppe (1) oder (2)'</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>230</v>
+      <c r="A46" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v>Pressure-volume-productOfCompartment1</v>
+        <v>FluidGroupOfCompartment2</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
@@ -11108,8 +11291,8 @@
       <c r="D46" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>275</v>
+      <c r="E46" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="F46" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
@@ -11117,59 +11300,59 @@
       </c>
       <c r="G46" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>TgVesselPressure-volume-productOfCompartment1</v>
+        <v>TgVesselFluidGroupOfCompartment2</v>
       </c>
       <c r="H46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgVesselPressure-volume-productOfCompartment1UDA</v>
+        <v>TgVesselFluidGroupOfCompartment2UDA</v>
       </c>
       <c r="I46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 45</v>
+        <v>Ablength 32</v>
       </c>
       <c r="J46" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K46" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselPressure-volume-productOfCompartment1'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselFluidGroupOfCompartment2'</v>
       </c>
       <c r="N46" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <v>Rptxt 'Raum 2: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="O46" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <v>desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="P46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselPressure-volume-productOfCompartment1UDA utype text Ablength 45 Ulength 250 Elelist :TgObVessel udname 'TgVesselPressure-volume-productOfCompartment1' Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselFluidGroupOfCompartment2UDA utype text Ablength 32 Ulength 250 Elelist :TgObEquipment udname 'TgVesselFluidGroupOfCompartment2' Rptxt 'Raum 2: Fluidgruppe (1) oder (2)' desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
       </c>
       <c r="Q46" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselPressure-volume-productOfCompartment1</v>
+        <v>new attcol DbAttribute :TgVesselFluidGroupOfCompartment2</v>
       </c>
       <c r="R46" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselPressure-volume-productOfCompartment1UDA Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <f t="shared" si="8"/>
+        <v>/TgVesselFluidGroupOfCompartment2UDA Rptxt 'Raum 2: Fluidgruppe (1) oder (2)' desc 'Raum 2: Fluidgruppe (1) oder (2)'</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>231</v>
+      <c r="A47" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v>Pressure-volume-productOfCompartment2</v>
+        <v>Pressure-volume-productOfCompartment1</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
@@ -11178,8 +11361,8 @@
       <c r="D47" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>276</v>
+      <c r="E47" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="F47" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
@@ -11187,11 +11370,11 @@
       </c>
       <c r="G47" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>TgVesselPressure-volume-productOfCompartment2</v>
+        <v>TgVesselPressure-volume-productOfCompartment1</v>
       </c>
       <c r="H47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgVesselPressure-volume-productOfCompartment2UDA</v>
+        <v>TgVesselPressure-volume-productOfCompartment1UDA</v>
       </c>
       <c r="I47" s="6" t="str">
         <f t="shared" si="1"/>
@@ -11202,44 +11385,44 @@
         <v>Ulength 250</v>
       </c>
       <c r="K47" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselPressure-volume-productOfCompartment2'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselPressure-volume-productOfCompartment1'</v>
       </c>
       <c r="N47" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <v>Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="O47" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <v>desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="P47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselPressure-volume-productOfCompartment2UDA utype text Ablength 45 Ulength 250 Elelist :TgObVessel udname 'TgVesselPressure-volume-productOfCompartment2' Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselPressure-volume-productOfCompartment1UDA utype text Ablength 45 Ulength 250 Elelist :TgObEquipment udname 'TgVesselPressure-volume-productOfCompartment1' Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="Q47" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselPressure-volume-productOfCompartment2</v>
+        <v>new attcol DbAttribute :TgVesselPressure-volume-productOfCompartment1</v>
       </c>
       <c r="R47" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselPressure-volume-productOfCompartment2UDA Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
+        <f t="shared" si="8"/>
+        <v>/TgVesselPressure-volume-productOfCompartment1UDA Rptxt 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 1: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>232</v>
+      <c r="A48" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v>PEDCategory</v>
+        <v>Pressure-volume-productOfCompartment2</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
@@ -11248,8 +11431,8 @@
       <c r="D48" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>277</v>
+      <c r="E48" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="F48" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
@@ -11257,59 +11440,59 @@
       </c>
       <c r="G48" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>TgVesselPEDCategory</v>
+        <v>TgVesselPressure-volume-productOfCompartment2</v>
       </c>
       <c r="H48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgVesselPEDCategoryUDA</v>
+        <v>TgVesselPressure-volume-productOfCompartment2UDA</v>
       </c>
       <c r="I48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 19</v>
+        <v>Ablength 45</v>
       </c>
       <c r="J48" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K48" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselPEDCategory'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselPressure-volume-productOfCompartment2'</v>
       </c>
       <c r="N48" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Einstufung nach DGRL (KAT)'</v>
+        <v>Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="O48" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Einstufung nach DGRL (KAT)'</v>
+        <v>desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="P48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselPEDCategoryUDA utype text Ablength 19 Ulength 250 Elelist :TgObVessel udname 'TgVesselPEDCategory' Rptxt 'Einstufung nach DGRL (KAT)' desc 'Einstufung nach DGRL (KAT)'</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselPressure-volume-productOfCompartment2UDA utype text Ablength 45 Ulength 250 Elelist :TgObEquipment udname 'TgVesselPressure-volume-productOfCompartment2' Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
       <c r="Q48" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselPEDCategory</v>
+        <v>new attcol DbAttribute :TgVesselPressure-volume-productOfCompartment2</v>
       </c>
       <c r="R48" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselPEDCategoryUDA Rptxt 'Einstufung nach DGRL (KAT)' desc 'Einstufung nach DGRL (KAT)'</v>
+        <f t="shared" si="8"/>
+        <v>/TgVesselPressure-volume-productOfCompartment2UDA Rptxt 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V' desc 'Raum 2: Druck-Inhaltprodukt nach DGRL / DGÜW-V'</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>199</v>
+      <c r="A49" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="B49" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v>PEDDangerpotential</v>
+        <v>PEDCategory</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
@@ -11318,8 +11501,8 @@
       <c r="D49" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>278</v>
+      <c r="E49" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="F49" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
@@ -11327,562 +11510,2072 @@
       </c>
       <c r="G49" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>TgVesselPEDDangerpotential</v>
+        <v>TgVesselPEDCategory</v>
       </c>
       <c r="H49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgVesselPEDDangerpotentialUDA</v>
+        <v>TgVesselPEDCategoryUDA</v>
       </c>
       <c r="I49" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 26</v>
+        <v>Ablength 19</v>
       </c>
       <c r="J49" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K49" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'TgVesselPEDDangerpotential'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselPEDCategory'</v>
       </c>
       <c r="N49" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt 'Gefahren-potential nach DGÜW-V'</v>
+        <v>Rptxt 'Einstufung nach DGRL (KAT)'</v>
       </c>
       <c r="O49" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc 'Gefahren-potential nach DGÜW-V'</v>
+        <v>desc 'Einstufung nach DGRL (KAT)'</v>
       </c>
       <c r="P49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgVesselPEDDangerpotentialUDA utype text Ablength 26 Ulength 250 Elelist :TgObVessel udname 'TgVesselPEDDangerpotential' Rptxt 'Gefahren-potential nach DGÜW-V' desc 'Gefahren-potential nach DGÜW-V'</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselPEDCategoryUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgVesselPEDCategory' Rptxt 'Einstufung nach DGRL (KAT)' desc 'Einstufung nach DGRL (KAT)'</v>
       </c>
       <c r="Q49" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :TgVesselPEDDangerpotential</v>
+        <v>new attcol DbAttribute :TgVesselPEDCategory</v>
       </c>
       <c r="R49" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgVesselPEDDangerpotentialUDA Rptxt 'Gefahren-potential nach DGÜW-V' desc 'Gefahren-potential nach DGÜW-V'</v>
+        <f t="shared" si="8"/>
+        <v>/TgVesselPEDCategoryUDA Rptxt 'Einstufung nach DGRL (KAT)' desc 'Einstufung nach DGRL (KAT)'</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="B50" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>PEDDangerpotential</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>278</v>
+      </c>
       <c r="F50" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G50" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgVesselPEDDangerpotential</v>
       </c>
       <c r="H50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgVesselPEDDangerpotentialUDA</v>
       </c>
       <c r="I50" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 26</v>
       </c>
       <c r="J50" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K50" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgVesselPEDDangerpotential'</v>
       </c>
       <c r="N50" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Gefahren-potential nach DGÜW-V'</v>
       </c>
       <c r="O50" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Gefahren-potential nach DGÜW-V'</v>
       </c>
       <c r="P50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgVesselPEDDangerpotentialUDA utype text Ablength 26 Ulength 250 Elelist :TgObEquipment udname 'TgVesselPEDDangerpotential' Rptxt 'Gefahren-potential nach DGÜW-V' desc 'Gefahren-potential nach DGÜW-V'</v>
       </c>
       <c r="Q50" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgVesselPEDDangerpotential</v>
       </c>
       <c r="R50" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>/TgVesselPEDDangerpotentialUDA Rptxt 'Gefahren-potential nach DGÜW-V' desc 'Gefahren-potential nach DGÜW-V'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="18" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v/>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C51" s="19" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="str">
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G51" s="6" t="str">
+      <c r="G51" s="19" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>Tg</v>
       </c>
-      <c r="H51" s="6" t="str">
+      <c r="H51" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TgUDA</v>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I51" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Ablength 2</v>
       </c>
-      <c r="J51" s="6" t="str">
+      <c r="J51" s="19" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
-      <c r="K51" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M51" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="K51" s="19" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v xml:space="preserve">Elelist </v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19" t="str">
+        <f t="shared" si="6"/>
         <v>udname 'Tg'</v>
       </c>
-      <c r="N51" s="6" t="str">
+      <c r="N51" s="19" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt ''</v>
       </c>
-      <c r="O51" s="6" t="str">
+      <c r="O51" s="19" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc ''</v>
       </c>
-      <c r="P51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
-      </c>
-      <c r="Q51" s="6" t="str">
+      <c r="P51" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist  udname 'Tg' Rptxt '' desc ''</v>
+      </c>
+      <c r="Q51" s="19" t="str">
         <f t="shared" si="4"/>
         <v>new attcol DbAttribute :Tg</v>
       </c>
-      <c r="R51" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="R51" s="19" t="str">
+        <f t="shared" si="8"/>
         <v>/TgUDA Rptxt '' desc ''</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="B52" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>MassFlow</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>311</v>
+      </c>
       <c r="F52" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G52" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpMassFlow</v>
       </c>
       <c r="H52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpMassFlowUDA</v>
       </c>
       <c r="I52" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 14</v>
       </c>
       <c r="J52" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K52" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpMassFlow'</v>
       </c>
       <c r="N52" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Massenstrom [t/h]'</v>
       </c>
       <c r="O52" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Massenstrom [t/h]'</v>
       </c>
       <c r="P52" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpMassFlowUDA utype text Ablength 14 Ulength 250 Elelist :TgObEquipment udname 'TgPumpMassFlow' Rptxt 'Massenstrom [t/h]' desc 'Massenstrom [t/h]'</v>
       </c>
       <c r="Q52" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpMassFlow</v>
       </c>
       <c r="R52" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <f t="shared" si="8"/>
+        <v>/TgPumpMassFlowUDA Rptxt 'Massenstrom [t/h]' desc 'Massenstrom [t/h]'</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="B53" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>DriveType</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>312</v>
+      </c>
       <c r="F53" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G53" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpDriveType</v>
       </c>
       <c r="H53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpDriveTypeUDA</v>
       </c>
       <c r="I53" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 15</v>
       </c>
       <c r="J53" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K53" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpDriveType'</v>
       </c>
       <c r="N53" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Antrieb Type'</v>
       </c>
       <c r="O53" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Antrieb Type'</v>
       </c>
       <c r="P53" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpDriveTypeUDA utype text Ablength 15 Ulength 250 Elelist :TgObEquipment udname 'TgPumpDriveType' Rptxt 'Antrieb Type' desc 'Antrieb Type'</v>
       </c>
       <c r="Q53" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpDriveType</v>
       </c>
       <c r="R53" s="6" t="str">
-        <f t="shared" ref="R53:R61" si="6">CONCATENATE("/",$H53," ",$N53," ",$O53)</f>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <f t="shared" si="8"/>
+        <v>/TgPumpDriveTypeUDA Rptxt 'Antrieb Type' desc 'Antrieb Type'</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="14" t="s">
+        <v>285</v>
+      </c>
       <c r="B54" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>RPM_Operating</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="F54" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpRPM_Operating</v>
       </c>
       <c r="H54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpRPM_OperatingUDA</v>
       </c>
       <c r="I54" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 19</v>
       </c>
       <c r="J54" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K54" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpRPM_Operating'</v>
       </c>
       <c r="N54" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Drehzahl Betrieb [1/s]'</v>
       </c>
       <c r="O54" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Drehzahl Betrieb [1/s]'</v>
       </c>
       <c r="P54" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpRPM_OperatingUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgPumpRPM_Operating' Rptxt 'Drehzahl Betrieb [1/s]' desc 'Drehzahl Betrieb [1/s]'</v>
       </c>
       <c r="Q54" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpRPM_Operating</v>
       </c>
       <c r="R54" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <f t="shared" si="8"/>
+        <v>/TgPumpRPM_OperatingUDA Rptxt 'Drehzahl Betrieb [1/s]' desc 'Drehzahl Betrieb [1/s]'</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="13" t="s">
+        <v>286</v>
+      </c>
       <c r="B55" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>RPM_Critical</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="F55" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G55" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpRPM_Critical</v>
       </c>
       <c r="H55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpRPM_CriticalUDA</v>
       </c>
       <c r="I55" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 18</v>
       </c>
       <c r="J55" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K55" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M55" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpRPM_Critical'</v>
       </c>
       <c r="N55" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Drehzahl kritisch [1/s]'</v>
       </c>
       <c r="O55" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Drehzahl kritisch [1/s]'</v>
       </c>
       <c r="P55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpRPM_CriticalUDA utype text Ablength 18 Ulength 250 Elelist :TgObEquipment udname 'TgPumpRPM_Critical' Rptxt 'Drehzahl kritisch [1/s]' desc 'Drehzahl kritisch [1/s]'</v>
       </c>
       <c r="Q55" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpRPM_Critical</v>
       </c>
       <c r="R55" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <f t="shared" si="8"/>
+        <v>/TgPumpRPM_CriticalUDA Rptxt 'Drehzahl kritisch [1/s]' desc 'Drehzahl kritisch [1/s]'</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="14" t="s">
+        <v>287</v>
+      </c>
       <c r="B56" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>Power</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>337</v>
+      </c>
       <c r="F56" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G56" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpPower</v>
       </c>
       <c r="H56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpPowerUDA</v>
       </c>
       <c r="I56" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 11</v>
       </c>
       <c r="J56" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K56" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpPower'</v>
       </c>
       <c r="N56" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Leistung [kW]'</v>
       </c>
       <c r="O56" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Leistung [kW]'</v>
       </c>
       <c r="P56" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpPowerUDA utype text Ablength 11 Ulength 250 Elelist :TgObEquipment udname 'TgPumpPower' Rptxt 'Leistung [kW]' desc 'Leistung [kW]'</v>
       </c>
       <c r="Q56" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpPower</v>
       </c>
       <c r="R56" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <f t="shared" si="8"/>
+        <v>/TgPumpPowerUDA Rptxt 'Leistung [kW]' desc 'Leistung [kW]'</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="B57" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>PressureInlet</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>EQUI[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>336</v>
+      </c>
       <c r="F57" s="6" t="str">
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G57" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgPumpPressureInlet</v>
       </c>
       <c r="H57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>TgUDA</v>
+        <v>TgPumpPressureInletUDA</v>
       </c>
       <c r="I57" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>Ablength 2</v>
+        <v>Ablength 19</v>
       </c>
       <c r="J57" s="6" t="str">
         <f>EQUI[[#Headers],[Ulength 250]]</f>
         <v>Ulength 250</v>
       </c>
       <c r="K57" s="6" t="str">
-        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Spalte1]]</f>
-        <v>Elelist :TgObVessel</v>
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>udname 'Tg'</v>
+        <f t="shared" si="6"/>
+        <v>udname 'TgPumpPressureInlet'</v>
       </c>
       <c r="N57" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Zulaufdruck [barü]'</v>
       </c>
       <c r="O57" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Zulaufdruck [barü]'</v>
       </c>
       <c r="P57" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObVessel udname 'Tg' Rptxt '' desc ''</v>
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpPressureInletUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgPumpPressureInlet' Rptxt 'Zulaufdruck [barü]' desc 'Zulaufdruck [barü]'</v>
       </c>
       <c r="Q57" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgPumpPressureInlet</v>
       </c>
       <c r="R57" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>/TgPumpPressureInletUDA Rptxt 'Zulaufdruck [barü]' desc 'Zulaufdruck [barü]'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="7" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>NetPositiveSuctionHead</v>
+      </c>
+      <c r="C58" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G58" s="6" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpNetPositiveSuctionHead</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TgPumpNetPositiveSuctionHeadUDA</v>
+      </c>
+      <c r="I58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ablength 28</v>
+      </c>
+      <c r="J58" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K58" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M58" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <v>udname 'TgPumpNetPositiveSuctionHead'</v>
+      </c>
+      <c r="N58" s="6" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'NPSH [m]'</v>
+      </c>
+      <c r="O58" s="6" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'NPSH [m]'</v>
+      </c>
+      <c r="P58" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>new uda /TgPumpNetPositiveSuctionHeadUDA utype text Ablength 28 Ulength 250 Elelist :TgObEquipment udname 'TgPumpNetPositiveSuctionHead' Rptxt 'NPSH [m]' desc 'NPSH [m]'</v>
+      </c>
+      <c r="Q58" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>new attcol DbAttribute :TgPumpNetPositiveSuctionHead</v>
+      </c>
+      <c r="R58" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>/TgPumpNetPositiveSuctionHeadUDA Rptxt 'NPSH [m]' desc 'NPSH [m]'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>MinimumPermittedMassFlowContinuous</v>
+      </c>
+      <c r="C59" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G59" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpMinimumPermittedMassFlowContinuous</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f t="shared" ref="H59:H78" si="9">G59&amp;F59</f>
+        <v>TgPumpMinimumPermittedMassFlowContinuousUDA</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" ref="I59:I78" si="10">"Ablength "&amp; LEN(G59)</f>
+        <v>Ablength 40</v>
+      </c>
+      <c r="J59" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K59" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" s="6" t="str">
+        <f t="shared" ref="M59:M78" si="11">"udname '"&amp;G59&amp;"'"</f>
+        <v>udname 'TgPumpMinimumPermittedMassFlowContinuous'</v>
+      </c>
+      <c r="N59" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
+      </c>
+      <c r="O59" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
+      </c>
+      <c r="P59" s="6" t="str">
+        <f t="shared" ref="P59:P78" si="12">CONCATENATE($C59,$H59," utype text"," ",$I59," ",$J59," ",$K59," ",$M59," ",$N59," ",$O59)</f>
+        <v>new uda /TgPumpMinimumPermittedMassFlowContinuousUDA utype text Ablength 40 Ulength 250 Elelist :TgObEquipment udname 'TgPumpMinimumPermittedMassFlowContinuous' Rptxt 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]' desc 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
+      </c>
+      <c r="Q59" s="6" t="str">
+        <f t="shared" ref="Q59:Q78" si="13">"new attcol DbAttribute :"&amp;$G59</f>
+        <v>new attcol DbAttribute :TgPumpMinimumPermittedMassFlowContinuous</v>
+      </c>
+      <c r="R59" s="24" t="str">
+        <f t="shared" ref="R59:R78" si="14">CONCATENATE("/",$H59," ",$N59," ",$O59)</f>
+        <v>/TgPumpMinimumPermittedMassFlowContinuousUDA Rptxt 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]' desc 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>PumpStandard</v>
+      </c>
+      <c r="C60" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G60" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpPumpStandard</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpPumpStandardUDA</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 18</v>
+      </c>
+      <c r="J60" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K60" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M60" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpPumpStandard'</v>
+      </c>
+      <c r="N60" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Pumpennorm'</v>
+      </c>
+      <c r="O60" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Pumpennorm'</v>
+      </c>
+      <c r="P60" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpPumpStandardUDA utype text Ablength 18 Ulength 250 Elelist :TgObEquipment udname 'TgPumpPumpStandard' Rptxt 'Pumpennorm' desc 'Pumpennorm'</v>
+      </c>
+      <c r="Q60" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpPumpStandard</v>
+      </c>
+      <c r="R60" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpPumpStandardUDA Rptxt 'Pumpennorm' desc 'Pumpennorm'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>Execution</v>
+      </c>
+      <c r="C61" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G61" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpExecution</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpExecutionUDA</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 15</v>
+      </c>
+      <c r="J61" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K61" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M61" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpExecution'</v>
+      </c>
+      <c r="N61" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Ausführung'</v>
+      </c>
+      <c r="O61" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Ausführung'</v>
+      </c>
+      <c r="P61" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpExecutionUDA utype text Ablength 15 Ulength 250 Elelist :TgObEquipment udname 'TgPumpExecution' Rptxt 'Ausführung' desc 'Ausführung'</v>
+      </c>
+      <c r="Q61" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpExecution</v>
+      </c>
+      <c r="R61" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpExecutionUDA Rptxt 'Ausführung' desc 'Ausführung'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>ShaftExecution</v>
+      </c>
+      <c r="C62" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G62" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpShaftExecution</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpShaftExecutionUDA</v>
+      </c>
+      <c r="I62" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 20</v>
+      </c>
+      <c r="J62" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K62" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M62" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpShaftExecution'</v>
+      </c>
+      <c r="N62" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Wellenausführung'</v>
+      </c>
+      <c r="O62" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Wellenausführung'</v>
+      </c>
+      <c r="P62" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpShaftExecutionUDA utype text Ablength 20 Ulength 250 Elelist :TgObEquipment udname 'TgPumpShaftExecution' Rptxt 'Wellenausführung' desc 'Wellenausführung'</v>
+      </c>
+      <c r="Q62" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpShaftExecution</v>
+      </c>
+      <c r="R62" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpShaftExecutionUDA Rptxt 'Wellenausführung' desc 'Wellenausführung'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>NominalPressure</v>
+      </c>
+      <c r="C63" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G63" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpNominalPressure</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpNominalPressureUDA</v>
+      </c>
+      <c r="I63" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 21</v>
+      </c>
+      <c r="J63" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K63" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M63" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpNominalPressure'</v>
+      </c>
+      <c r="N63" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Nenndruck'</v>
+      </c>
+      <c r="O63" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Nenndruck'</v>
+      </c>
+      <c r="P63" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpNominalPressureUDA utype text Ablength 21 Ulength 250 Elelist :TgObEquipment udname 'TgPumpNominalPressure' Rptxt 'Nenndruck' desc 'Nenndruck'</v>
+      </c>
+      <c r="Q63" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpNominalPressure</v>
+      </c>
+      <c r="R63" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpNominalPressureUDA Rptxt 'Nenndruck' desc 'Nenndruck'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>InletNominalDiameter</v>
+      </c>
+      <c r="C64" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G64" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpInletNominalDiameter</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpInletNominalDiameterUDA</v>
+      </c>
+      <c r="I64" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 26</v>
+      </c>
+      <c r="J64" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K64" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M64" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpInletNominalDiameter'</v>
+      </c>
+      <c r="N64" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'DN Saugstutzen'</v>
+      </c>
+      <c r="O64" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'DN Saugstutzen'</v>
+      </c>
+      <c r="P64" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpInletNominalDiameterUDA utype text Ablength 26 Ulength 250 Elelist :TgObEquipment udname 'TgPumpInletNominalDiameter' Rptxt 'DN Saugstutzen' desc 'DN Saugstutzen'</v>
+      </c>
+      <c r="Q64" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpInletNominalDiameter</v>
+      </c>
+      <c r="R64" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpInletNominalDiameterUDA Rptxt 'DN Saugstutzen' desc 'DN Saugstutzen'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>InletNominalPressure</v>
+      </c>
+      <c r="C65" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G65" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpInletNominalPressure</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpInletNominalPressureUDA</v>
+      </c>
+      <c r="I65" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 26</v>
+      </c>
+      <c r="J65" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K65" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M65" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpInletNominalPressure'</v>
+      </c>
+      <c r="N65" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'PN Saugstutzen'</v>
+      </c>
+      <c r="O65" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'PN Saugstutzen'</v>
+      </c>
+      <c r="P65" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpInletNominalPressureUDA utype text Ablength 26 Ulength 250 Elelist :TgObEquipment udname 'TgPumpInletNominalPressure' Rptxt 'PN Saugstutzen' desc 'PN Saugstutzen'</v>
+      </c>
+      <c r="Q65" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpInletNominalPressure</v>
+      </c>
+      <c r="R65" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpInletNominalPressureUDA Rptxt 'PN Saugstutzen' desc 'PN Saugstutzen'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>InletStandard</v>
+      </c>
+      <c r="C66" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G66" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpInletStandard</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpInletStandardUDA</v>
+      </c>
+      <c r="I66" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 19</v>
+      </c>
+      <c r="J66" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K66" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M66" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpInletStandard'</v>
+      </c>
+      <c r="N66" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Norm Saugflansch'</v>
+      </c>
+      <c r="O66" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Norm Saugflansch'</v>
+      </c>
+      <c r="P66" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpInletStandardUDA utype text Ablength 19 Ulength 250 Elelist :TgObEquipment udname 'TgPumpInletStandard' Rptxt 'Norm Saugflansch' desc 'Norm Saugflansch'</v>
+      </c>
+      <c r="Q66" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpInletStandard</v>
+      </c>
+      <c r="R66" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpInletStandardUDA Rptxt 'Norm Saugflansch' desc 'Norm Saugflansch'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>DischargeNominalDiameter</v>
+      </c>
+      <c r="C67" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G67" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpDischargeNominalDiameter</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpDischargeNominalDiameterUDA</v>
+      </c>
+      <c r="I67" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 30</v>
+      </c>
+      <c r="J67" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K67" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M67" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpDischargeNominalDiameter'</v>
+      </c>
+      <c r="N67" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'DN Druckstutzen'</v>
+      </c>
+      <c r="O67" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'DN Druckstutzen'</v>
+      </c>
+      <c r="P67" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpDischargeNominalDiameterUDA utype text Ablength 30 Ulength 250 Elelist :TgObEquipment udname 'TgPumpDischargeNominalDiameter' Rptxt 'DN Druckstutzen' desc 'DN Druckstutzen'</v>
+      </c>
+      <c r="Q67" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpDischargeNominalDiameter</v>
+      </c>
+      <c r="R67" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpDischargeNominalDiameterUDA Rptxt 'DN Druckstutzen' desc 'DN Druckstutzen'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>DischargeNominalPressure</v>
+      </c>
+      <c r="C68" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G68" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpDischargeNominalPressure</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpDischargeNominalPressureUDA</v>
+      </c>
+      <c r="I68" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 30</v>
+      </c>
+      <c r="J68" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K68" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M68" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpDischargeNominalPressure'</v>
+      </c>
+      <c r="N68" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'PN Druckstutzen'</v>
+      </c>
+      <c r="O68" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'PN Druckstutzen'</v>
+      </c>
+      <c r="P68" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpDischargeNominalPressureUDA utype text Ablength 30 Ulength 250 Elelist :TgObEquipment udname 'TgPumpDischargeNominalPressure' Rptxt 'PN Druckstutzen' desc 'PN Druckstutzen'</v>
+      </c>
+      <c r="Q68" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpDischargeNominalPressure</v>
+      </c>
+      <c r="R68" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpDischargeNominalPressureUDA Rptxt 'PN Druckstutzen' desc 'PN Druckstutzen'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>DischargeStandard</v>
+      </c>
+      <c r="C69" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G69" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpDischargeStandard</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpDischargeStandardUDA</v>
+      </c>
+      <c r="I69" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 23</v>
+      </c>
+      <c r="J69" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K69" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M69" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpDischargeStandard'</v>
+      </c>
+      <c r="N69" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Norm Druckflansch'</v>
+      </c>
+      <c r="O69" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Norm Druckflansch'</v>
+      </c>
+      <c r="P69" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpDischargeStandardUDA utype text Ablength 23 Ulength 250 Elelist :TgObEquipment udname 'TgPumpDischargeStandard' Rptxt 'Norm Druckflansch' desc 'Norm Druckflansch'</v>
+      </c>
+      <c r="Q69" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpDischargeStandard</v>
+      </c>
+      <c r="R69" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpDischargeStandardUDA Rptxt 'Norm Druckflansch' desc 'Norm Druckflansch'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>SealType</v>
+      </c>
+      <c r="C70" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G70" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpSealType</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpSealTypeUDA</v>
+      </c>
+      <c r="I70" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 14</v>
+      </c>
+      <c r="J70" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K70" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M70" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpSealType'</v>
+      </c>
+      <c r="N70" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Art Dichtung'</v>
+      </c>
+      <c r="O70" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Art Dichtung'</v>
+      </c>
+      <c r="P70" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpSealTypeUDA utype text Ablength 14 Ulength 250 Elelist :TgObEquipment udname 'TgPumpSealType' Rptxt 'Art Dichtung' desc 'Art Dichtung'</v>
+      </c>
+      <c r="Q70" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpSealType</v>
+      </c>
+      <c r="R70" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpSealTypeUDA Rptxt 'Art Dichtung' desc 'Art Dichtung'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>SealManufacturer</v>
+      </c>
+      <c r="C71" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G71" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpSealManufacturer</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpSealManufacturerUDA</v>
+      </c>
+      <c r="I71" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 22</v>
+      </c>
+      <c r="J71" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K71" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M71" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpSealManufacturer'</v>
+      </c>
+      <c r="N71" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Hersteller Dichtung'</v>
+      </c>
+      <c r="O71" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Hersteller Dichtung'</v>
+      </c>
+      <c r="P71" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpSealManufacturerUDA utype text Ablength 22 Ulength 250 Elelist :TgObEquipment udname 'TgPumpSealManufacturer' Rptxt 'Hersteller Dichtung' desc 'Hersteller Dichtung'</v>
+      </c>
+      <c r="Q71" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpSealManufacturer</v>
+      </c>
+      <c r="R71" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpSealManufacturerUDA Rptxt 'Hersteller Dichtung' desc 'Hersteller Dichtung'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>SealModel</v>
+      </c>
+      <c r="C72" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G72" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpSealModel</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpSealModelUDA</v>
+      </c>
+      <c r="I72" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 15</v>
+      </c>
+      <c r="J72" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K72" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M72" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpSealModel'</v>
+      </c>
+      <c r="N72" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Type Dichtung'</v>
+      </c>
+      <c r="O72" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Type Dichtung'</v>
+      </c>
+      <c r="P72" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpSealModelUDA utype text Ablength 15 Ulength 250 Elelist :TgObEquipment udname 'TgPumpSealModel' Rptxt 'Type Dichtung' desc 'Type Dichtung'</v>
+      </c>
+      <c r="Q72" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpSealModel</v>
+      </c>
+      <c r="R72" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpSealModelUDA Rptxt 'Type Dichtung' desc 'Type Dichtung'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>ImpellerDiameter</v>
+      </c>
+      <c r="C73" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G73" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpImpellerDiameter</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpImpellerDiameterUDA</v>
+      </c>
+      <c r="I73" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 22</v>
+      </c>
+      <c r="J73" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K73" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M73" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpImpellerDiameter'</v>
+      </c>
+      <c r="N73" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Laufraddurchmesser [mm]'</v>
+      </c>
+      <c r="O73" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Laufraddurchmesser [mm]'</v>
+      </c>
+      <c r="P73" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpImpellerDiameterUDA utype text Ablength 22 Ulength 250 Elelist :TgObEquipment udname 'TgPumpImpellerDiameter' Rptxt 'Laufraddurchmesser [mm]' desc 'Laufraddurchmesser [mm]'</v>
+      </c>
+      <c r="Q73" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpImpellerDiameter</v>
+      </c>
+      <c r="R73" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpImpellerDiameterUDA Rptxt 'Laufraddurchmesser [mm]' desc 'Laufraddurchmesser [mm]'</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>BearingSeal</v>
+      </c>
+      <c r="C74" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G74" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpBearingSeal</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpBearingSealUDA</v>
+      </c>
+      <c r="I74" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 17</v>
+      </c>
+      <c r="J74" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K74" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M74" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpBearingSeal'</v>
+      </c>
+      <c r="N74" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Lagerdichtung'</v>
+      </c>
+      <c r="O74" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Lagerdichtung'</v>
+      </c>
+      <c r="P74" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpBearingSealUDA utype text Ablength 17 Ulength 250 Elelist :TgObEquipment udname 'TgPumpBearingSeal' Rptxt 'Lagerdichtung' desc 'Lagerdichtung'</v>
+      </c>
+      <c r="Q74" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpBearingSeal</v>
+      </c>
+      <c r="R74" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpBearingSealUDA Rptxt 'Lagerdichtung' desc 'Lagerdichtung'</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>BearingType</v>
+      </c>
+      <c r="C75" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G75" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpBearingType</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpBearingTypeUDA</v>
+      </c>
+      <c r="I75" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 17</v>
+      </c>
+      <c r="J75" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K75" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M75" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpBearingType'</v>
+      </c>
+      <c r="N75" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Lagerart'</v>
+      </c>
+      <c r="O75" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Lagerart'</v>
+      </c>
+      <c r="P75" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpBearingTypeUDA utype text Ablength 17 Ulength 250 Elelist :TgObEquipment udname 'TgPumpBearingType' Rptxt 'Lagerart' desc 'Lagerart'</v>
+      </c>
+      <c r="Q75" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpBearingType</v>
+      </c>
+      <c r="R75" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpBearingTypeUDA Rptxt 'Lagerart' desc 'Lagerart'</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B76" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>LubricationTypeDriveSide</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G76" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpLubricationTypeDriveSide</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpLubricationTypeDriveSideUDA</v>
+      </c>
+      <c r="I76" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 30</v>
+      </c>
+      <c r="J76" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K76" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M76" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpLubricationTypeDriveSide'</v>
+      </c>
+      <c r="N76" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Schmierart Antriebsseite'</v>
+      </c>
+      <c r="O76" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Schmierart Antriebsseite'</v>
+      </c>
+      <c r="P76" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpLubricationTypeDriveSideUDA utype text Ablength 30 Ulength 250 Elelist :TgObEquipment udname 'TgPumpLubricationTypeDriveSide' Rptxt 'Schmierart Antriebsseite' desc 'Schmierart Antriebsseite'</v>
+      </c>
+      <c r="Q76" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpLubricationTypeDriveSide</v>
+      </c>
+      <c r="R76" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpLubricationTypeDriveSideUDA Rptxt 'Schmierart Antriebsseite' desc 'Schmierart Antriebsseite'</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>LubricatantControlSystem</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G77" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpLubricatantControlSystem</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpLubricatantControlSystemUDA</v>
+      </c>
+      <c r="I77" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 30</v>
+      </c>
+      <c r="J77" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K77" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M77" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpLubricatantControlSystem'</v>
+      </c>
+      <c r="N77" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Schmiermittelüberwachung'</v>
+      </c>
+      <c r="O77" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Schmiermittelüberwachung'</v>
+      </c>
+      <c r="P77" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpLubricatantControlSystemUDA utype text Ablength 30 Ulength 250 Elelist :TgObEquipment udname 'TgPumpLubricatantControlSystem' Rptxt 'Schmiermittelüberwachung' desc 'Schmiermittelüberwachung'</v>
+      </c>
+      <c r="Q77" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpLubricatantControlSystem</v>
+      </c>
+      <c r="R77" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpLubricatantControlSystemUDA Rptxt 'Schmiermittelüberwachung' desc 'Schmiermittelüberwachung'</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
+        <v>CoolingBearingSupport</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <f>EQUI[[#Headers],[new uda /]]</f>
+        <v>new uda /</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f>EQUI[[#Headers],[UDA]]</f>
+        <v>UDA</v>
+      </c>
+      <c r="G78" s="24" t="str">
+        <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
+        <v>TgPumpCoolingBearingSupport</v>
+      </c>
+      <c r="H78" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>TgPumpCoolingBearingSupportUDA</v>
+      </c>
+      <c r="I78" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Ablength 27</v>
+      </c>
+      <c r="J78" s="6" t="str">
+        <f>EQUI[[#Headers],[Ulength 250]]</f>
+        <v>Ulength 250</v>
+      </c>
+      <c r="K78" s="6" t="str">
+        <f>EQUI[[#Headers],[Elelist ]]&amp;EQUI[[#This Row],[Target-Type]]</f>
+        <v>Elelist :TgObEquipment</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M78" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>udname 'TgPumpCoolingBearingSupport'</v>
+      </c>
+      <c r="N78" s="24" t="str">
+        <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>Rptxt 'Lagerträgerkühlung'</v>
+      </c>
+      <c r="O78" s="24" t="str">
+        <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
+        <v>desc 'Lagerträgerkühlung'</v>
+      </c>
+      <c r="P78" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>new uda /TgPumpCoolingBearingSupportUDA utype text Ablength 27 Ulength 250 Elelist :TgObEquipment udname 'TgPumpCoolingBearingSupport' Rptxt 'Lagerträgerkühlung' desc 'Lagerträgerkühlung'</v>
+      </c>
+      <c r="Q78" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>new attcol DbAttribute :TgPumpCoolingBearingSupport</v>
+      </c>
+      <c r="R78" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>/TgPumpCoolingBearingSupportUDA Rptxt 'Lagerträgerkühlung' desc 'Lagerträgerkühlung'</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL/UDAGEN.xlsx
+++ b/EXCEL/UDAGEN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAC\MACROS_WORK\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705E177-0C14-4B0F-8476-BF7992047F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E6870-582C-4CC8-B7AE-A1AEE5137872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44550" yWindow="0" windowWidth="28800" windowHeight="18555" activeTab="1" xr2:uid="{97B28DAE-2167-4984-9CE6-3AC0C30C0AA5}"/>
+    <workbookView xWindow="44295" yWindow="1275" windowWidth="28800" windowHeight="17550" xr2:uid="{97B28DAE-2167-4984-9CE6-3AC0C30C0AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="UDA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="342">
   <si>
     <t>Content</t>
   </si>
@@ -1053,6 +1053,18 @@
   </si>
   <si>
     <t>Leistung [kW]</t>
+  </si>
+  <si>
+    <t>Weight Valve Drive</t>
+  </si>
+  <si>
+    <t>Weight Valve No Drive</t>
+  </si>
+  <si>
+    <t>Gewicht ohne Antrieb [mm]</t>
+  </si>
+  <si>
+    <t>Gewicht von Antrieb [mm]</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1242,8 +1254,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2221,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1353-7DE5-45CC-8469-BC8D38DE6EDF}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
       <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
@@ -7662,32 +7672,38 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+      <c r="A79" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="B79" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Remain[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>WeightValveNoDrive</v>
       </c>
       <c r="C79" s="6" t="str">
         <f>Remain[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="F79" s="6" t="str">
         <f>Remain[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G79" s="6" t="str">
         <f>"Tg"&amp;Remain[[#This Row],[UDET desc]]&amp;Remain[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgValveWeightValveNoDrive</v>
       </c>
       <c r="H79" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>TgUDA</v>
+        <v>TgValveWeightValveNoDriveUDA</v>
       </c>
       <c r="I79" s="6" t="str">
         <f t="shared" si="32"/>
-        <v>Ablength 2</v>
+        <v>Ablength 25</v>
       </c>
       <c r="J79" s="6" t="str">
         <f>Remain[[#Headers],[Ulength 250]]</f>
@@ -7702,56 +7718,62 @@
       </c>
       <c r="M79" s="6" t="str">
         <f t="shared" si="33"/>
-        <v>udname 'Tg'</v>
+        <v>udname 'TgValveWeightValveNoDrive'</v>
       </c>
       <c r="N79" s="6" t="str">
         <f>"Rptxt '"&amp;Remain[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Gewicht ohne Antrieb [mm]'</v>
       </c>
       <c r="O79" s="6" t="str">
         <f>"desc '"&amp;Remain[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Gewicht ohne Antrieb [mm]'</v>
       </c>
       <c r="P79" s="6" t="str">
         <f t="shared" si="34"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObValve udname 'Tg' Rptxt '' desc ''</v>
+        <v>new uda /TgValveWeightValveNoDriveUDA utype text Ablength 25 Ulength 250 Elelist :TgObValve udname 'TgValveWeightValveNoDrive' Rptxt 'Gewicht ohne Antrieb [mm]' desc 'Gewicht ohne Antrieb [mm]'</v>
       </c>
       <c r="Q79" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgValveWeightValveNoDrive</v>
       </c>
       <c r="R79" s="6" t="str">
         <f t="shared" si="36"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <v>/TgValveWeightValveNoDriveUDA Rptxt 'Gewicht ohne Antrieb [mm]' desc 'Gewicht ohne Antrieb [mm]'</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="B80" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Remain[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
-        <v/>
+        <v>WeightValveDrive</v>
       </c>
       <c r="C80" s="6" t="str">
         <f>Remain[[#Headers],[new uda /]]</f>
         <v>new uda /</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="F80" s="6" t="str">
         <f>Remain[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
       <c r="G80" s="6" t="str">
         <f>"Tg"&amp;Remain[[#This Row],[UDET desc]]&amp;Remain[[#This Row],[Desc E3D]]</f>
-        <v>Tg</v>
+        <v>TgValveWeightValveDrive</v>
       </c>
       <c r="H80" s="6" t="str">
         <f t="shared" si="31"/>
-        <v>TgUDA</v>
+        <v>TgValveWeightValveDriveUDA</v>
       </c>
       <c r="I80" s="6" t="str">
         <f t="shared" si="32"/>
-        <v>Ablength 2</v>
+        <v>Ablength 23</v>
       </c>
       <c r="J80" s="6" t="str">
         <f>Remain[[#Headers],[Ulength 250]]</f>
@@ -7766,27 +7788,27 @@
       </c>
       <c r="M80" s="6" t="str">
         <f t="shared" si="33"/>
-        <v>udname 'Tg'</v>
+        <v>udname 'TgValveWeightValveDrive'</v>
       </c>
       <c r="N80" s="6" t="str">
         <f>"Rptxt '"&amp;Remain[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>Rptxt ''</v>
+        <v>Rptxt 'Gewicht von Antrieb [mm]'</v>
       </c>
       <c r="O80" s="6" t="str">
         <f>"desc '"&amp;Remain[[#This Row],[UDA desc]]&amp;"'"</f>
-        <v>desc ''</v>
+        <v>desc 'Gewicht von Antrieb [mm]'</v>
       </c>
       <c r="P80" s="6" t="str">
         <f t="shared" si="34"/>
-        <v>new uda /TgUDA utype text Ablength 2 Ulength 250 Elelist :TgObValve udname 'Tg' Rptxt '' desc ''</v>
+        <v>new uda /TgValveWeightValveDriveUDA utype text Ablength 23 Ulength 250 Elelist :TgObValve udname 'TgValveWeightValveDrive' Rptxt 'Gewicht von Antrieb [mm]' desc 'Gewicht von Antrieb [mm]'</v>
       </c>
       <c r="Q80" s="6" t="str">
         <f t="shared" si="35"/>
-        <v>new attcol DbAttribute :Tg</v>
+        <v>new attcol DbAttribute :TgValveWeightValveDrive</v>
       </c>
       <c r="R80" s="6" t="str">
         <f t="shared" si="36"/>
-        <v>/TgUDA Rptxt '' desc ''</v>
+        <v>/TgValveWeightValveDriveUDA Rptxt 'Gewicht von Antrieb [mm]' desc 'Gewicht von Antrieb [mm]'</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -8122,7 +8144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97400A6C-8E9E-4F62-8A84-B939A5F5F2BE}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H52" sqref="H52:H78"/>
     </sheetView>
   </sheetViews>
@@ -12182,7 +12204,7 @@
       <c r="A59" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B59" s="23" t="str">
+      <c r="B59" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>MinimumPermittedMassFlowContinuous</v>
       </c>
@@ -12200,7 +12222,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G59" s="24" t="str">
+      <c r="G59" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpMinimumPermittedMassFlowContinuous</v>
       </c>
@@ -12227,11 +12249,11 @@
         <f t="shared" ref="M59:M78" si="11">"udname '"&amp;G59&amp;"'"</f>
         <v>udname 'TgPumpMinimumPermittedMassFlowContinuous'</v>
       </c>
-      <c r="N59" s="24" t="str">
+      <c r="N59" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
       </c>
-      <c r="O59" s="24" t="str">
+      <c r="O59" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
       </c>
@@ -12243,7 +12265,7 @@
         <f t="shared" ref="Q59:Q78" si="13">"new attcol DbAttribute :"&amp;$G59</f>
         <v>new attcol DbAttribute :TgPumpMinimumPermittedMassFlowContinuous</v>
       </c>
-      <c r="R59" s="24" t="str">
+      <c r="R59" s="6" t="str">
         <f t="shared" ref="R59:R78" si="14">CONCATENATE("/",$H59," ",$N59," ",$O59)</f>
         <v>/TgPumpMinimumPermittedMassFlowContinuousUDA Rptxt 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]' desc 'mind. zul. Förderstrom für stabilen Dauerbetrieb [m3/h]'</v>
       </c>
@@ -12252,7 +12274,7 @@
       <c r="A60" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B60" s="23" t="str">
+      <c r="B60" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>PumpStandard</v>
       </c>
@@ -12270,7 +12292,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G60" s="24" t="str">
+      <c r="G60" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpPumpStandard</v>
       </c>
@@ -12297,11 +12319,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpPumpStandard'</v>
       </c>
-      <c r="N60" s="24" t="str">
+      <c r="N60" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Pumpennorm'</v>
       </c>
-      <c r="O60" s="24" t="str">
+      <c r="O60" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Pumpennorm'</v>
       </c>
@@ -12313,7 +12335,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpPumpStandard</v>
       </c>
-      <c r="R60" s="24" t="str">
+      <c r="R60" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpPumpStandardUDA Rptxt 'Pumpennorm' desc 'Pumpennorm'</v>
       </c>
@@ -12322,7 +12344,7 @@
       <c r="A61" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B61" s="23" t="str">
+      <c r="B61" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>Execution</v>
       </c>
@@ -12340,7 +12362,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G61" s="24" t="str">
+      <c r="G61" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpExecution</v>
       </c>
@@ -12367,11 +12389,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpExecution'</v>
       </c>
-      <c r="N61" s="24" t="str">
+      <c r="N61" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Ausführung'</v>
       </c>
-      <c r="O61" s="24" t="str">
+      <c r="O61" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Ausführung'</v>
       </c>
@@ -12383,7 +12405,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpExecution</v>
       </c>
-      <c r="R61" s="24" t="str">
+      <c r="R61" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpExecutionUDA Rptxt 'Ausführung' desc 'Ausführung'</v>
       </c>
@@ -12392,7 +12414,7 @@
       <c r="A62" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="23" t="str">
+      <c r="B62" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>ShaftExecution</v>
       </c>
@@ -12410,7 +12432,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G62" s="24" t="str">
+      <c r="G62" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpShaftExecution</v>
       </c>
@@ -12437,11 +12459,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpShaftExecution'</v>
       </c>
-      <c r="N62" s="24" t="str">
+      <c r="N62" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Wellenausführung'</v>
       </c>
-      <c r="O62" s="24" t="str">
+      <c r="O62" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Wellenausführung'</v>
       </c>
@@ -12453,7 +12475,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpShaftExecution</v>
       </c>
-      <c r="R62" s="24" t="str">
+      <c r="R62" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpShaftExecutionUDA Rptxt 'Wellenausführung' desc 'Wellenausführung'</v>
       </c>
@@ -12462,7 +12484,7 @@
       <c r="A63" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B63" s="23" t="str">
+      <c r="B63" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>NominalPressure</v>
       </c>
@@ -12480,7 +12502,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G63" s="24" t="str">
+      <c r="G63" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpNominalPressure</v>
       </c>
@@ -12507,11 +12529,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpNominalPressure'</v>
       </c>
-      <c r="N63" s="24" t="str">
+      <c r="N63" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Nenndruck'</v>
       </c>
-      <c r="O63" s="24" t="str">
+      <c r="O63" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Nenndruck'</v>
       </c>
@@ -12523,7 +12545,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpNominalPressure</v>
       </c>
-      <c r="R63" s="24" t="str">
+      <c r="R63" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpNominalPressureUDA Rptxt 'Nenndruck' desc 'Nenndruck'</v>
       </c>
@@ -12532,7 +12554,7 @@
       <c r="A64" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B64" s="23" t="str">
+      <c r="B64" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>InletNominalDiameter</v>
       </c>
@@ -12550,7 +12572,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G64" s="24" t="str">
+      <c r="G64" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpInletNominalDiameter</v>
       </c>
@@ -12577,11 +12599,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpInletNominalDiameter'</v>
       </c>
-      <c r="N64" s="24" t="str">
+      <c r="N64" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'DN Saugstutzen'</v>
       </c>
-      <c r="O64" s="24" t="str">
+      <c r="O64" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'DN Saugstutzen'</v>
       </c>
@@ -12593,7 +12615,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpInletNominalDiameter</v>
       </c>
-      <c r="R64" s="24" t="str">
+      <c r="R64" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpInletNominalDiameterUDA Rptxt 'DN Saugstutzen' desc 'DN Saugstutzen'</v>
       </c>
@@ -12602,7 +12624,7 @@
       <c r="A65" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B65" s="23" t="str">
+      <c r="B65" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>InletNominalPressure</v>
       </c>
@@ -12620,7 +12642,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G65" s="24" t="str">
+      <c r="G65" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpInletNominalPressure</v>
       </c>
@@ -12647,11 +12669,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpInletNominalPressure'</v>
       </c>
-      <c r="N65" s="24" t="str">
+      <c r="N65" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'PN Saugstutzen'</v>
       </c>
-      <c r="O65" s="24" t="str">
+      <c r="O65" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'PN Saugstutzen'</v>
       </c>
@@ -12663,7 +12685,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpInletNominalPressure</v>
       </c>
-      <c r="R65" s="24" t="str">
+      <c r="R65" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpInletNominalPressureUDA Rptxt 'PN Saugstutzen' desc 'PN Saugstutzen'</v>
       </c>
@@ -12672,7 +12694,7 @@
       <c r="A66" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="B66" s="23" t="str">
+      <c r="B66" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>InletStandard</v>
       </c>
@@ -12690,7 +12712,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G66" s="24" t="str">
+      <c r="G66" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpInletStandard</v>
       </c>
@@ -12717,11 +12739,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpInletStandard'</v>
       </c>
-      <c r="N66" s="24" t="str">
+      <c r="N66" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Norm Saugflansch'</v>
       </c>
-      <c r="O66" s="24" t="str">
+      <c r="O66" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Norm Saugflansch'</v>
       </c>
@@ -12733,7 +12755,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpInletStandard</v>
       </c>
-      <c r="R66" s="24" t="str">
+      <c r="R66" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpInletStandardUDA Rptxt 'Norm Saugflansch' desc 'Norm Saugflansch'</v>
       </c>
@@ -12742,7 +12764,7 @@
       <c r="A67" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B67" s="23" t="str">
+      <c r="B67" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>DischargeNominalDiameter</v>
       </c>
@@ -12760,7 +12782,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G67" s="24" t="str">
+      <c r="G67" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpDischargeNominalDiameter</v>
       </c>
@@ -12787,11 +12809,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpDischargeNominalDiameter'</v>
       </c>
-      <c r="N67" s="24" t="str">
+      <c r="N67" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'DN Druckstutzen'</v>
       </c>
-      <c r="O67" s="24" t="str">
+      <c r="O67" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'DN Druckstutzen'</v>
       </c>
@@ -12803,7 +12825,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpDischargeNominalDiameter</v>
       </c>
-      <c r="R67" s="24" t="str">
+      <c r="R67" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpDischargeNominalDiameterUDA Rptxt 'DN Druckstutzen' desc 'DN Druckstutzen'</v>
       </c>
@@ -12812,7 +12834,7 @@
       <c r="A68" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="B68" s="23" t="str">
+      <c r="B68" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>DischargeNominalPressure</v>
       </c>
@@ -12830,7 +12852,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G68" s="24" t="str">
+      <c r="G68" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpDischargeNominalPressure</v>
       </c>
@@ -12857,11 +12879,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpDischargeNominalPressure'</v>
       </c>
-      <c r="N68" s="24" t="str">
+      <c r="N68" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'PN Druckstutzen'</v>
       </c>
-      <c r="O68" s="24" t="str">
+      <c r="O68" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'PN Druckstutzen'</v>
       </c>
@@ -12873,7 +12895,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpDischargeNominalPressure</v>
       </c>
-      <c r="R68" s="24" t="str">
+      <c r="R68" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpDischargeNominalPressureUDA Rptxt 'PN Druckstutzen' desc 'PN Druckstutzen'</v>
       </c>
@@ -12882,7 +12904,7 @@
       <c r="A69" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B69" s="23" t="str">
+      <c r="B69" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>DischargeStandard</v>
       </c>
@@ -12900,7 +12922,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G69" s="24" t="str">
+      <c r="G69" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpDischargeStandard</v>
       </c>
@@ -12927,11 +12949,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpDischargeStandard'</v>
       </c>
-      <c r="N69" s="24" t="str">
+      <c r="N69" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Norm Druckflansch'</v>
       </c>
-      <c r="O69" s="24" t="str">
+      <c r="O69" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Norm Druckflansch'</v>
       </c>
@@ -12943,7 +12965,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpDischargeStandard</v>
       </c>
-      <c r="R69" s="24" t="str">
+      <c r="R69" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpDischargeStandardUDA Rptxt 'Norm Druckflansch' desc 'Norm Druckflansch'</v>
       </c>
@@ -12952,7 +12974,7 @@
       <c r="A70" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B70" s="23" t="str">
+      <c r="B70" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SealType</v>
       </c>
@@ -12970,7 +12992,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G70" s="24" t="str">
+      <c r="G70" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpSealType</v>
       </c>
@@ -12997,11 +13019,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpSealType'</v>
       </c>
-      <c r="N70" s="24" t="str">
+      <c r="N70" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Art Dichtung'</v>
       </c>
-      <c r="O70" s="24" t="str">
+      <c r="O70" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Art Dichtung'</v>
       </c>
@@ -13013,7 +13035,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpSealType</v>
       </c>
-      <c r="R70" s="24" t="str">
+      <c r="R70" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpSealTypeUDA Rptxt 'Art Dichtung' desc 'Art Dichtung'</v>
       </c>
@@ -13022,7 +13044,7 @@
       <c r="A71" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B71" s="23" t="str">
+      <c r="B71" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SealManufacturer</v>
       </c>
@@ -13040,7 +13062,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G71" s="24" t="str">
+      <c r="G71" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpSealManufacturer</v>
       </c>
@@ -13067,11 +13089,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpSealManufacturer'</v>
       </c>
-      <c r="N71" s="24" t="str">
+      <c r="N71" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Hersteller Dichtung'</v>
       </c>
-      <c r="O71" s="24" t="str">
+      <c r="O71" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Hersteller Dichtung'</v>
       </c>
@@ -13083,7 +13105,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpSealManufacturer</v>
       </c>
-      <c r="R71" s="24" t="str">
+      <c r="R71" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpSealManufacturerUDA Rptxt 'Hersteller Dichtung' desc 'Hersteller Dichtung'</v>
       </c>
@@ -13092,7 +13114,7 @@
       <c r="A72" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="23" t="str">
+      <c r="B72" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>SealModel</v>
       </c>
@@ -13110,7 +13132,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G72" s="24" t="str">
+      <c r="G72" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpSealModel</v>
       </c>
@@ -13137,11 +13159,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpSealModel'</v>
       </c>
-      <c r="N72" s="24" t="str">
+      <c r="N72" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Type Dichtung'</v>
       </c>
-      <c r="O72" s="24" t="str">
+      <c r="O72" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Type Dichtung'</v>
       </c>
@@ -13153,7 +13175,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpSealModel</v>
       </c>
-      <c r="R72" s="24" t="str">
+      <c r="R72" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpSealModelUDA Rptxt 'Type Dichtung' desc 'Type Dichtung'</v>
       </c>
@@ -13162,7 +13184,7 @@
       <c r="A73" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B73" s="23" t="str">
+      <c r="B73" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>ImpellerDiameter</v>
       </c>
@@ -13180,7 +13202,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G73" s="24" t="str">
+      <c r="G73" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpImpellerDiameter</v>
       </c>
@@ -13207,11 +13229,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpImpellerDiameter'</v>
       </c>
-      <c r="N73" s="24" t="str">
+      <c r="N73" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Laufraddurchmesser [mm]'</v>
       </c>
-      <c r="O73" s="24" t="str">
+      <c r="O73" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Laufraddurchmesser [mm]'</v>
       </c>
@@ -13223,7 +13245,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpImpellerDiameter</v>
       </c>
-      <c r="R73" s="24" t="str">
+      <c r="R73" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpImpellerDiameterUDA Rptxt 'Laufraddurchmesser [mm]' desc 'Laufraddurchmesser [mm]'</v>
       </c>
@@ -13232,7 +13254,7 @@
       <c r="A74" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="23" t="str">
+      <c r="B74" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>BearingSeal</v>
       </c>
@@ -13250,7 +13272,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G74" s="24" t="str">
+      <c r="G74" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpBearingSeal</v>
       </c>
@@ -13277,11 +13299,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpBearingSeal'</v>
       </c>
-      <c r="N74" s="24" t="str">
+      <c r="N74" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Lagerdichtung'</v>
       </c>
-      <c r="O74" s="24" t="str">
+      <c r="O74" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Lagerdichtung'</v>
       </c>
@@ -13293,7 +13315,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpBearingSeal</v>
       </c>
-      <c r="R74" s="24" t="str">
+      <c r="R74" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpBearingSealUDA Rptxt 'Lagerdichtung' desc 'Lagerdichtung'</v>
       </c>
@@ -13302,7 +13324,7 @@
       <c r="A75" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B75" s="23" t="str">
+      <c r="B75" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>BearingType</v>
       </c>
@@ -13320,7 +13342,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G75" s="24" t="str">
+      <c r="G75" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpBearingType</v>
       </c>
@@ -13347,11 +13369,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpBearingType'</v>
       </c>
-      <c r="N75" s="24" t="str">
+      <c r="N75" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Lagerart'</v>
       </c>
-      <c r="O75" s="24" t="str">
+      <c r="O75" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Lagerart'</v>
       </c>
@@ -13363,7 +13385,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpBearingType</v>
       </c>
-      <c r="R75" s="24" t="str">
+      <c r="R75" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpBearingTypeUDA Rptxt 'Lagerart' desc 'Lagerart'</v>
       </c>
@@ -13372,7 +13394,7 @@
       <c r="A76" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="B76" s="23" t="str">
+      <c r="B76" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>LubricationTypeDriveSide</v>
       </c>
@@ -13390,7 +13412,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G76" s="24" t="str">
+      <c r="G76" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpLubricationTypeDriveSide</v>
       </c>
@@ -13417,11 +13439,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpLubricationTypeDriveSide'</v>
       </c>
-      <c r="N76" s="24" t="str">
+      <c r="N76" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Schmierart Antriebsseite'</v>
       </c>
-      <c r="O76" s="24" t="str">
+      <c r="O76" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Schmierart Antriebsseite'</v>
       </c>
@@ -13433,7 +13455,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpLubricationTypeDriveSide</v>
       </c>
-      <c r="R76" s="24" t="str">
+      <c r="R76" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpLubricationTypeDriveSideUDA Rptxt 'Schmierart Antriebsseite' desc 'Schmierart Antriebsseite'</v>
       </c>
@@ -13442,7 +13464,7 @@
       <c r="A77" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="B77" s="23" t="str">
+      <c r="B77" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>LubricatantControlSystem</v>
       </c>
@@ -13460,7 +13482,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G77" s="24" t="str">
+      <c r="G77" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpLubricatantControlSystem</v>
       </c>
@@ -13487,11 +13509,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpLubricatantControlSystem'</v>
       </c>
-      <c r="N77" s="24" t="str">
+      <c r="N77" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Schmiermittelüberwachung'</v>
       </c>
-      <c r="O77" s="24" t="str">
+      <c r="O77" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Schmiermittelüberwachung'</v>
       </c>
@@ -13503,7 +13525,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpLubricatantControlSystem</v>
       </c>
-      <c r="R77" s="24" t="str">
+      <c r="R77" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpLubricatantControlSystemUDA Rptxt 'Schmiermittelüberwachung' desc 'Schmiermittelüberwachung'</v>
       </c>
@@ -13512,7 +13534,7 @@
       <c r="A78" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="23" t="str">
+      <c r="B78" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(EQUI[[#This Row],[Description]]," ",""),"ä","ae"),"(",""),")","")</f>
         <v>CoolingBearingSupport</v>
       </c>
@@ -13530,7 +13552,7 @@
         <f>EQUI[[#Headers],[UDA]]</f>
         <v>UDA</v>
       </c>
-      <c r="G78" s="24" t="str">
+      <c r="G78" s="6" t="str">
         <f>"Tg"&amp;EQUI[[#This Row],[UDET desc]]&amp;EQUI[[#This Row],[Desc E3D]]</f>
         <v>TgPumpCoolingBearingSupport</v>
       </c>
@@ -13557,11 +13579,11 @@
         <f t="shared" si="11"/>
         <v>udname 'TgPumpCoolingBearingSupport'</v>
       </c>
-      <c r="N78" s="24" t="str">
+      <c r="N78" s="6" t="str">
         <f>"Rptxt '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>Rptxt 'Lagerträgerkühlung'</v>
       </c>
-      <c r="O78" s="24" t="str">
+      <c r="O78" s="6" t="str">
         <f>"desc '"&amp;EQUI[[#This Row],[UDA desc]]&amp;"'"</f>
         <v>desc 'Lagerträgerkühlung'</v>
       </c>
@@ -13573,7 +13595,7 @@
         <f t="shared" si="13"/>
         <v>new attcol DbAttribute :TgPumpCoolingBearingSupport</v>
       </c>
-      <c r="R78" s="24" t="str">
+      <c r="R78" s="6" t="str">
         <f t="shared" si="14"/>
         <v>/TgPumpCoolingBearingSupportUDA Rptxt 'Lagerträgerkühlung' desc 'Lagerträgerkühlung'</v>
       </c>
